--- a/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Full VPOP Classification Summary.xlsx
+++ b/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Full VPOP Classification Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher/Documents/PTSD/NCDE Model/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher/Documents/PTSD/NCDE Model.nosync/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF698D9-7A67-4641-B64B-BEBDCBBEB260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F1D117-6C89-A245-90F4-2B96BF875F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16660" xr2:uid="{064A12D9-DF30-0A45-B172-879C6B680B9E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="52">
   <si>
     <t>Control</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Uniform Noise - 5% - 5 Layers - ReLU - Dropout 0.5</t>
+  </si>
+  <si>
+    <t>NODE Networks</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -496,10 +499,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -521,6 +524,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26565,10 +26569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF02A33-AEE7-C74D-B125-3664DD3F27B5}">
-  <dimension ref="A1:AD430"/>
+  <dimension ref="A1:AD468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M279" sqref="M279"/>
+    <sheetView tabSelected="1" topLeftCell="I435" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U451" sqref="U451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26587,28 +26591,28 @@
       <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="Q2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="Q3" s="33" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="Q3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
     </row>
     <row r="4" spans="1:30" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -27965,16 +27969,16 @@
       <c r="R20" s="9"/>
     </row>
     <row r="21" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="Q21" s="33" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="Q21" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
     </row>
     <row r="22" spans="1:30" ht="26" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -29257,28 +29261,28 @@
       </c>
     </row>
     <row r="39" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="Q39" s="33" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="Q39" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
     </row>
     <row r="40" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="Q40" s="33" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="Q40" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:30" ht="26" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
@@ -30569,16 +30573,16 @@
       <c r="R57" s="9"/>
     </row>
     <row r="58" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="Q58" s="33" t="s">
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="Q58" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
     </row>
     <row r="59" spans="1:30" ht="26" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
@@ -31865,28 +31869,28 @@
       </c>
     </row>
     <row r="76" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="Q76" s="33" t="s">
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="Q76" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="R76" s="33"/>
-      <c r="S76" s="33"/>
+      <c r="R76" s="32"/>
+      <c r="S76" s="32"/>
     </row>
     <row r="77" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="Q77" s="33" t="s">
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="Q77" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R77" s="33"/>
-      <c r="S77" s="33"/>
+      <c r="R77" s="32"/>
+      <c r="S77" s="32"/>
     </row>
     <row r="78" spans="1:30" ht="26" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
@@ -33177,16 +33181,16 @@
       <c r="R94" s="9"/>
     </row>
     <row r="95" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="Q95" s="33" t="s">
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="Q95" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R95" s="33"/>
-      <c r="S95" s="33"/>
+      <c r="R95" s="32"/>
+      <c r="S95" s="32"/>
     </row>
     <row r="96" spans="1:30" ht="26" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
@@ -34476,28 +34480,28 @@
       <c r="C113" s="34"/>
     </row>
     <row r="114" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A114" s="33" t="s">
+      <c r="A114" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33"/>
-      <c r="Q114" s="33" t="s">
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="Q114" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="R114" s="33"/>
-      <c r="S114" s="33"/>
+      <c r="R114" s="32"/>
+      <c r="S114" s="32"/>
     </row>
     <row r="115" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A115" s="33" t="s">
+      <c r="A115" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="Q115" s="33" t="s">
+      <c r="B115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="Q115" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R115" s="33"/>
-      <c r="S115" s="33"/>
+      <c r="R115" s="32"/>
+      <c r="S115" s="32"/>
     </row>
     <row r="116" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
@@ -35820,16 +35824,16 @@
       <c r="R132" s="9"/>
     </row>
     <row r="133" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A133" s="33" t="s">
+      <c r="A133" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B133" s="33"/>
-      <c r="C133" s="33"/>
-      <c r="Q133" s="33" t="s">
+      <c r="B133" s="32"/>
+      <c r="C133" s="32"/>
+      <c r="Q133" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R133" s="33"/>
-      <c r="S133" s="33"/>
+      <c r="R133" s="32"/>
+      <c r="S133" s="32"/>
     </row>
     <row r="134" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
@@ -37110,28 +37114,28 @@
       </c>
     </row>
     <row r="151" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A151" s="33" t="s">
+      <c r="A151" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B151" s="33"/>
-      <c r="C151" s="33"/>
-      <c r="Q151" s="33" t="s">
+      <c r="B151" s="32"/>
+      <c r="C151" s="32"/>
+      <c r="Q151" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="R151" s="33"/>
-      <c r="S151" s="33"/>
+      <c r="R151" s="32"/>
+      <c r="S151" s="32"/>
     </row>
     <row r="152" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A152" s="33" t="s">
+      <c r="A152" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B152" s="33"/>
-      <c r="C152" s="33"/>
-      <c r="Q152" s="33" t="s">
+      <c r="B152" s="32"/>
+      <c r="C152" s="32"/>
+      <c r="Q152" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R152" s="33"/>
-      <c r="S152" s="33"/>
+      <c r="R152" s="32"/>
+      <c r="S152" s="32"/>
     </row>
     <row r="153" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
@@ -38420,16 +38424,16 @@
       <c r="R169" s="9"/>
     </row>
     <row r="170" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A170" s="33" t="s">
+      <c r="A170" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B170" s="33"/>
-      <c r="C170" s="33"/>
-      <c r="Q170" s="33" t="s">
+      <c r="B170" s="32"/>
+      <c r="C170" s="32"/>
+      <c r="Q170" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R170" s="33"/>
-      <c r="S170" s="33"/>
+      <c r="R170" s="32"/>
+      <c r="S170" s="32"/>
     </row>
     <row r="171" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
@@ -39719,23 +39723,23 @@
       </c>
       <c r="B188" s="18"/>
       <c r="C188" s="18"/>
-      <c r="Q188" s="33" t="s">
+      <c r="Q188" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="R188" s="33"/>
-      <c r="S188" s="33"/>
+      <c r="R188" s="32"/>
+      <c r="S188" s="32"/>
     </row>
     <row r="189" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A189" s="33" t="s">
+      <c r="A189" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B189" s="33"/>
-      <c r="C189" s="33"/>
-      <c r="Q189" s="33" t="s">
+      <c r="B189" s="32"/>
+      <c r="C189" s="32"/>
+      <c r="Q189" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R189" s="33"/>
-      <c r="S189" s="33"/>
+      <c r="R189" s="32"/>
+      <c r="S189" s="32"/>
     </row>
     <row r="190" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
@@ -41024,16 +41028,16 @@
       <c r="R206" s="9"/>
     </row>
     <row r="207" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A207" s="33" t="s">
+      <c r="A207" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B207" s="33"/>
-      <c r="C207" s="33"/>
-      <c r="Q207" s="33" t="s">
+      <c r="B207" s="32"/>
+      <c r="C207" s="32"/>
+      <c r="Q207" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R207" s="33"/>
-      <c r="S207" s="33"/>
+      <c r="R207" s="32"/>
+      <c r="S207" s="32"/>
     </row>
     <row r="208" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
@@ -42318,30 +42322,30 @@
       </c>
     </row>
     <row r="225" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A225" s="32" t="s">
+      <c r="A225" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B225" s="32"/>
-      <c r="C225" s="32"/>
-      <c r="D225" s="32"/>
-      <c r="E225" s="32"/>
-      <c r="Q225" s="33" t="s">
+      <c r="B225" s="33"/>
+      <c r="C225" s="33"/>
+      <c r="D225" s="33"/>
+      <c r="E225" s="33"/>
+      <c r="Q225" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="R225" s="33"/>
-      <c r="S225" s="33"/>
+      <c r="R225" s="32"/>
+      <c r="S225" s="32"/>
     </row>
     <row r="226" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A226" s="33" t="s">
+      <c r="A226" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B226" s="33"/>
-      <c r="C226" s="33"/>
-      <c r="Q226" s="33" t="s">
+      <c r="B226" s="32"/>
+      <c r="C226" s="32"/>
+      <c r="Q226" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R226" s="33"/>
-      <c r="S226" s="33"/>
+      <c r="R226" s="32"/>
+      <c r="S226" s="32"/>
     </row>
     <row r="227" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
@@ -43630,32 +43634,32 @@
       <c r="R243" s="9"/>
     </row>
     <row r="244" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A244" s="32" t="s">
+      <c r="A244" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B244" s="32"/>
-      <c r="C244" s="32"/>
-      <c r="D244" s="32"/>
-      <c r="E244" s="32"/>
-      <c r="F244" s="32"/>
-      <c r="G244" s="32"/>
-      <c r="Q244" s="33" t="s">
+      <c r="B244" s="33"/>
+      <c r="C244" s="33"/>
+      <c r="D244" s="33"/>
+      <c r="E244" s="33"/>
+      <c r="F244" s="33"/>
+      <c r="G244" s="33"/>
+      <c r="Q244" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="R244" s="33"/>
-      <c r="S244" s="33"/>
+      <c r="R244" s="32"/>
+      <c r="S244" s="32"/>
     </row>
     <row r="245" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A245" s="33" t="s">
+      <c r="A245" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B245" s="33"/>
-      <c r="C245" s="33"/>
-      <c r="Q245" s="33" t="s">
+      <c r="B245" s="32"/>
+      <c r="C245" s="32"/>
+      <c r="Q245" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R245" s="33"/>
-      <c r="S245" s="33"/>
+      <c r="R245" s="32"/>
+      <c r="S245" s="32"/>
     </row>
     <row r="246" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
@@ -44944,32 +44948,32 @@
       <c r="R262" s="9"/>
     </row>
     <row r="263" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A263" s="32" t="s">
+      <c r="A263" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B263" s="32"/>
-      <c r="C263" s="32"/>
-      <c r="D263" s="32"/>
-      <c r="E263" s="32"/>
-      <c r="F263" s="32"/>
-      <c r="G263" s="32"/>
-      <c r="Q263" s="33" t="s">
+      <c r="B263" s="33"/>
+      <c r="C263" s="33"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="33"/>
+      <c r="F263" s="33"/>
+      <c r="G263" s="33"/>
+      <c r="Q263" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="R263" s="33"/>
-      <c r="S263" s="33"/>
+      <c r="R263" s="32"/>
+      <c r="S263" s="32"/>
     </row>
     <row r="264" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A264" s="33" t="s">
+      <c r="A264" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B264" s="33"/>
-      <c r="C264" s="33"/>
-      <c r="Q264" s="33" t="s">
+      <c r="B264" s="32"/>
+      <c r="C264" s="32"/>
+      <c r="Q264" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R264" s="33"/>
-      <c r="S264" s="33"/>
+      <c r="R264" s="32"/>
+      <c r="S264" s="32"/>
     </row>
     <row r="265" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
@@ -46258,28 +46262,28 @@
       <c r="R281" s="9"/>
     </row>
     <row r="282" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A282" s="33" t="s">
+      <c r="A282" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B282" s="33"/>
-      <c r="C282" s="33"/>
-      <c r="Q282" s="33" t="s">
+      <c r="B282" s="32"/>
+      <c r="C282" s="32"/>
+      <c r="Q282" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="R282" s="33"/>
-      <c r="S282" s="33"/>
+      <c r="R282" s="32"/>
+      <c r="S282" s="32"/>
     </row>
     <row r="283" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A283" s="33" t="s">
+      <c r="A283" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B283" s="33"/>
-      <c r="C283" s="33"/>
-      <c r="Q283" s="33" t="s">
+      <c r="B283" s="32"/>
+      <c r="C283" s="32"/>
+      <c r="Q283" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R283" s="33"/>
-      <c r="S283" s="33"/>
+      <c r="R283" s="32"/>
+      <c r="S283" s="32"/>
     </row>
     <row r="284" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
@@ -47568,16 +47572,16 @@
       <c r="R300" s="9"/>
     </row>
     <row r="301" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A301" s="33" t="s">
+      <c r="A301" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B301" s="33"/>
-      <c r="C301" s="33"/>
-      <c r="Q301" s="33" t="s">
+      <c r="B301" s="32"/>
+      <c r="C301" s="32"/>
+      <c r="Q301" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R301" s="33"/>
-      <c r="S301" s="33"/>
+      <c r="R301" s="32"/>
+      <c r="S301" s="32"/>
     </row>
     <row r="302" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
@@ -48865,28 +48869,28 @@
       <c r="C319" s="34"/>
     </row>
     <row r="320" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A320" s="33" t="s">
+      <c r="A320" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B320" s="33"/>
-      <c r="C320" s="33"/>
-      <c r="Q320" s="33" t="s">
+      <c r="B320" s="32"/>
+      <c r="C320" s="32"/>
+      <c r="Q320" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="R320" s="33"/>
-      <c r="S320" s="33"/>
+      <c r="R320" s="32"/>
+      <c r="S320" s="32"/>
     </row>
     <row r="321" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A321" s="33" t="s">
+      <c r="A321" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B321" s="33"/>
-      <c r="C321" s="33"/>
-      <c r="Q321" s="33" t="s">
+      <c r="B321" s="32"/>
+      <c r="C321" s="32"/>
+      <c r="Q321" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R321" s="33"/>
-      <c r="S321" s="33"/>
+      <c r="R321" s="32"/>
+      <c r="S321" s="32"/>
     </row>
     <row r="322" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
@@ -49935,16 +49939,16 @@
       <c r="R338" s="9"/>
     </row>
     <row r="339" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A339" s="33" t="s">
+      <c r="A339" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B339" s="33"/>
-      <c r="C339" s="33"/>
-      <c r="Q339" s="33" t="s">
+      <c r="B339" s="32"/>
+      <c r="C339" s="32"/>
+      <c r="Q339" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R339" s="33"/>
-      <c r="S339" s="33"/>
+      <c r="R339" s="32"/>
+      <c r="S339" s="32"/>
     </row>
     <row r="340" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
@@ -50951,28 +50955,28 @@
       </c>
     </row>
     <row r="357" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A357" s="33" t="s">
+      <c r="A357" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B357" s="33"/>
-      <c r="C357" s="33"/>
-      <c r="Q357" s="33" t="s">
+      <c r="B357" s="32"/>
+      <c r="C357" s="32"/>
+      <c r="Q357" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="R357" s="33"/>
-      <c r="S357" s="33"/>
+      <c r="R357" s="32"/>
+      <c r="S357" s="32"/>
     </row>
     <row r="358" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A358" s="33" t="s">
+      <c r="A358" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B358" s="33"/>
-      <c r="C358" s="33"/>
-      <c r="Q358" s="33" t="s">
+      <c r="B358" s="32"/>
+      <c r="C358" s="32"/>
+      <c r="Q358" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R358" s="33"/>
-      <c r="S358" s="33"/>
+      <c r="R358" s="32"/>
+      <c r="S358" s="32"/>
     </row>
     <row r="359" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
@@ -52261,16 +52265,16 @@
       <c r="R375" s="9"/>
     </row>
     <row r="376" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A376" s="33" t="s">
+      <c r="A376" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B376" s="33"/>
-      <c r="C376" s="33"/>
-      <c r="Q376" s="33" t="s">
+      <c r="B376" s="32"/>
+      <c r="C376" s="32"/>
+      <c r="Q376" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R376" s="33"/>
-      <c r="S376" s="33"/>
+      <c r="R376" s="32"/>
+      <c r="S376" s="32"/>
     </row>
     <row r="377" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
@@ -53555,28 +53559,28 @@
       </c>
     </row>
     <row r="394" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A394" s="33" t="s">
+      <c r="A394" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B394" s="33"/>
-      <c r="C394" s="33"/>
-      <c r="Q394" s="33" t="s">
+      <c r="B394" s="32"/>
+      <c r="C394" s="32"/>
+      <c r="Q394" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="R394" s="33"/>
-      <c r="S394" s="33"/>
+      <c r="R394" s="32"/>
+      <c r="S394" s="32"/>
     </row>
     <row r="395" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A395" s="33" t="s">
+      <c r="A395" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B395" s="33"/>
-      <c r="C395" s="33"/>
-      <c r="Q395" s="33" t="s">
+      <c r="B395" s="32"/>
+      <c r="C395" s="32"/>
+      <c r="Q395" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="R395" s="33"/>
-      <c r="S395" s="33"/>
+      <c r="R395" s="32"/>
+      <c r="S395" s="32"/>
     </row>
     <row r="396" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
@@ -54591,16 +54595,16 @@
       <c r="R412" s="9"/>
     </row>
     <row r="413" spans="1:29" ht="29" x14ac:dyDescent="0.35">
-      <c r="A413" s="33" t="s">
+      <c r="A413" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B413" s="33"/>
-      <c r="C413" s="33"/>
-      <c r="Q413" s="33" t="s">
+      <c r="B413" s="32"/>
+      <c r="C413" s="32"/>
+      <c r="Q413" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="R413" s="33"/>
-      <c r="S413" s="33"/>
+      <c r="R413" s="32"/>
+      <c r="S413" s="32"/>
     </row>
     <row r="414" spans="1:29" ht="26" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
@@ -55606,462 +55610,3448 @@
         <v>1240</v>
       </c>
     </row>
+    <row r="431" spans="1:29" ht="31" x14ac:dyDescent="0.35">
+      <c r="A431" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B431" s="40"/>
+      <c r="C431" s="40"/>
+    </row>
+    <row r="432" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="A432" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B432" s="32"/>
+      <c r="C432" s="32"/>
+      <c r="Q432" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="R432" s="32"/>
+      <c r="S432" s="32"/>
+    </row>
+    <row r="433" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="A433" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B433" s="32"/>
+      <c r="C433" s="32"/>
+      <c r="Q433" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R433" s="32"/>
+      <c r="S433" s="32"/>
+    </row>
+    <row r="434" spans="1:29" ht="26" x14ac:dyDescent="0.3">
+      <c r="A434" s="1"/>
+      <c r="B434" t="s">
+        <v>0</v>
+      </c>
+      <c r="C434" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D434" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E434" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F434" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G434" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H434" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I434" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J434" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K434" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L434" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M434" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N434" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q434" s="1"/>
+      <c r="R434" t="s">
+        <v>0</v>
+      </c>
+      <c r="S434" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="T434" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U434" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="V434" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="W434" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="X434" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y434" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z434" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA434" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB434" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC434" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="435" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>1</v>
+      </c>
+      <c r="B435" s="2"/>
+      <c r="C435" s="28"/>
+      <c r="D435" s="28"/>
+      <c r="E435" s="28"/>
+      <c r="F435" s="28"/>
+      <c r="G435" s="28"/>
+      <c r="H435" s="28"/>
+      <c r="I435" s="28"/>
+      <c r="J435" s="28"/>
+      <c r="K435" s="28"/>
+      <c r="L435" s="28"/>
+      <c r="M435" s="28"/>
+      <c r="N435" s="21"/>
+      <c r="Q435" t="s">
+        <v>1</v>
+      </c>
+      <c r="R435" s="2"/>
+      <c r="S435" s="28"/>
+      <c r="T435" s="28"/>
+      <c r="U435" s="28"/>
+      <c r="V435" s="28"/>
+      <c r="W435" s="28"/>
+      <c r="X435" s="28"/>
+      <c r="Y435" s="28"/>
+      <c r="Z435" s="28"/>
+      <c r="AA435" s="28"/>
+      <c r="AB435" s="28"/>
+      <c r="AC435" s="28"/>
+    </row>
+    <row r="436" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A436" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B436" s="31"/>
+      <c r="C436" s="5">
+        <v>9</v>
+      </c>
+      <c r="D436" s="3">
+        <v>4</v>
+      </c>
+      <c r="E436" s="5">
+        <v>6</v>
+      </c>
+      <c r="F436" s="3">
+        <v>3</v>
+      </c>
+      <c r="G436" s="5">
+        <v>8</v>
+      </c>
+      <c r="H436" s="3">
+        <v>8</v>
+      </c>
+      <c r="I436" s="5">
+        <v>6</v>
+      </c>
+      <c r="J436" s="3">
+        <v>5</v>
+      </c>
+      <c r="K436" s="5">
+        <v>4</v>
+      </c>
+      <c r="L436" s="3">
+        <v>9</v>
+      </c>
+      <c r="M436" s="5">
+        <v>4</v>
+      </c>
+      <c r="N436" s="5">
+        <f>SUM(C436:M436)/107</f>
+        <v>0.61682242990654201</v>
+      </c>
+      <c r="Q436" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="R436" s="31"/>
+      <c r="S436" s="5">
+        <f>C436/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="T436" s="5">
+        <f t="shared" ref="T436:T446" si="508">D436/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="U436" s="5">
+        <f t="shared" ref="U436:U446" si="509">E436/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="V436" s="5">
+        <f t="shared" ref="V436:V446" si="510">F436/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="W436" s="5">
+        <f t="shared" ref="W436:W446" si="511">G436/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="X436" s="5">
+        <f t="shared" ref="X436:X446" si="512">H436/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="Y436" s="5">
+        <f t="shared" ref="Y436:Y446" si="513">I436/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="Z436" s="5">
+        <f t="shared" ref="Z436:Z446" si="514">J436/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="AA436" s="5">
+        <f t="shared" ref="AA436:AA446" si="515">K436/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="AB436" s="5">
+        <f t="shared" ref="AB436:AB446" si="516">L436/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="AC436" s="5">
+        <f>M436/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="437" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A437" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B437" s="20"/>
+      <c r="C437" s="6">
+        <v>6</v>
+      </c>
+      <c r="D437">
+        <v>7</v>
+      </c>
+      <c r="E437" s="6">
+        <v>5</v>
+      </c>
+      <c r="F437" s="6">
+        <v>2</v>
+      </c>
+      <c r="G437" s="6">
+        <v>6</v>
+      </c>
+      <c r="H437" s="6">
+        <v>5</v>
+      </c>
+      <c r="I437" s="6">
+        <v>5</v>
+      </c>
+      <c r="J437" s="6">
+        <v>4</v>
+      </c>
+      <c r="K437" s="6">
+        <v>6</v>
+      </c>
+      <c r="L437" s="6">
+        <v>7</v>
+      </c>
+      <c r="M437" s="6">
+        <v>5</v>
+      </c>
+      <c r="N437" s="5">
+        <f t="shared" ref="N437:N446" si="517">SUM(C437:M437)/107</f>
+        <v>0.54205607476635509</v>
+      </c>
+      <c r="Q437" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R437" s="20"/>
+      <c r="S437" s="5">
+        <f t="shared" ref="S437:S446" si="518">C437/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="T437" s="5">
+        <f t="shared" si="508"/>
+        <v>0.7</v>
+      </c>
+      <c r="U437" s="5">
+        <f t="shared" si="509"/>
+        <v>0.5</v>
+      </c>
+      <c r="V437" s="5">
+        <f t="shared" si="510"/>
+        <v>0.2</v>
+      </c>
+      <c r="W437" s="5">
+        <f t="shared" si="511"/>
+        <v>0.6</v>
+      </c>
+      <c r="X437" s="5">
+        <f t="shared" si="512"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y437" s="5">
+        <f t="shared" si="513"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z437" s="5">
+        <f t="shared" si="514"/>
+        <v>0.4</v>
+      </c>
+      <c r="AA437" s="5">
+        <f t="shared" si="515"/>
+        <v>0.6</v>
+      </c>
+      <c r="AB437" s="5">
+        <f t="shared" si="516"/>
+        <v>0.7</v>
+      </c>
+      <c r="AC437" s="5">
+        <f t="shared" ref="AC437:AC446" si="519">M437/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="438" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A438" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B438" s="20"/>
+      <c r="C438" s="6">
+        <v>5</v>
+      </c>
+      <c r="D438">
+        <v>5</v>
+      </c>
+      <c r="E438" s="6">
+        <v>5</v>
+      </c>
+      <c r="F438" s="6">
+        <v>4</v>
+      </c>
+      <c r="G438" s="6">
+        <v>5</v>
+      </c>
+      <c r="H438" s="6">
+        <v>6</v>
+      </c>
+      <c r="I438" s="6">
+        <v>6</v>
+      </c>
+      <c r="J438" s="6">
+        <v>6</v>
+      </c>
+      <c r="K438" s="6">
+        <v>5</v>
+      </c>
+      <c r="L438" s="6">
+        <v>4</v>
+      </c>
+      <c r="M438" s="6">
+        <v>5</v>
+      </c>
+      <c r="N438" s="5">
+        <f t="shared" si="517"/>
+        <v>0.52336448598130836</v>
+      </c>
+      <c r="Q438" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="R438" s="20"/>
+      <c r="S438" s="5">
+        <f t="shared" si="518"/>
+        <v>0.5</v>
+      </c>
+      <c r="T438" s="5">
+        <f t="shared" si="508"/>
+        <v>0.5</v>
+      </c>
+      <c r="U438" s="5">
+        <f t="shared" si="509"/>
+        <v>0.5</v>
+      </c>
+      <c r="V438" s="5">
+        <f t="shared" si="510"/>
+        <v>0.4</v>
+      </c>
+      <c r="W438" s="5">
+        <f t="shared" si="511"/>
+        <v>0.5</v>
+      </c>
+      <c r="X438" s="5">
+        <f t="shared" si="512"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y438" s="5">
+        <f t="shared" si="513"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z438" s="5">
+        <f t="shared" si="514"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA438" s="5">
+        <f t="shared" si="515"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB438" s="5">
+        <f t="shared" si="516"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC438" s="5">
+        <f t="shared" si="519"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="439" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A439" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B439" s="20"/>
+      <c r="C439" s="6">
+        <v>7</v>
+      </c>
+      <c r="D439">
+        <v>6</v>
+      </c>
+      <c r="E439" s="6">
+        <v>6</v>
+      </c>
+      <c r="F439" s="6">
+        <v>7</v>
+      </c>
+      <c r="G439" s="6">
+        <v>6</v>
+      </c>
+      <c r="H439" s="6">
+        <v>5</v>
+      </c>
+      <c r="I439" s="6">
+        <v>6</v>
+      </c>
+      <c r="J439" s="6">
+        <v>5</v>
+      </c>
+      <c r="K439" s="6">
+        <v>6</v>
+      </c>
+      <c r="L439" s="6">
+        <v>4</v>
+      </c>
+      <c r="M439" s="6">
+        <v>2</v>
+      </c>
+      <c r="N439" s="5">
+        <f t="shared" si="517"/>
+        <v>0.56074766355140182</v>
+      </c>
+      <c r="Q439" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R439" s="20"/>
+      <c r="S439" s="5">
+        <f t="shared" si="518"/>
+        <v>0.7</v>
+      </c>
+      <c r="T439" s="5">
+        <f t="shared" si="508"/>
+        <v>0.6</v>
+      </c>
+      <c r="U439" s="5">
+        <f t="shared" si="509"/>
+        <v>0.6</v>
+      </c>
+      <c r="V439" s="5">
+        <f t="shared" si="510"/>
+        <v>0.7</v>
+      </c>
+      <c r="W439" s="5">
+        <f t="shared" si="511"/>
+        <v>0.6</v>
+      </c>
+      <c r="X439" s="5">
+        <f t="shared" si="512"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y439" s="5">
+        <f t="shared" si="513"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z439" s="5">
+        <f t="shared" si="514"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA439" s="5">
+        <f t="shared" si="515"/>
+        <v>0.6</v>
+      </c>
+      <c r="AB439" s="5">
+        <f t="shared" si="516"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC439" s="5">
+        <f t="shared" si="519"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="440" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A440" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B440" s="20"/>
+      <c r="C440" s="6">
+        <v>5</v>
+      </c>
+      <c r="D440">
+        <v>5</v>
+      </c>
+      <c r="E440" s="6">
+        <v>5</v>
+      </c>
+      <c r="F440" s="6">
+        <v>5</v>
+      </c>
+      <c r="G440" s="6">
+        <v>5</v>
+      </c>
+      <c r="H440" s="6">
+        <v>6</v>
+      </c>
+      <c r="I440" s="6">
+        <v>4</v>
+      </c>
+      <c r="J440" s="6">
+        <v>7</v>
+      </c>
+      <c r="K440" s="6">
+        <v>6</v>
+      </c>
+      <c r="L440" s="6">
+        <v>4</v>
+      </c>
+      <c r="M440" s="6">
+        <v>6</v>
+      </c>
+      <c r="N440" s="5">
+        <f t="shared" si="517"/>
+        <v>0.54205607476635509</v>
+      </c>
+      <c r="Q440" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R440" s="20"/>
+      <c r="S440" s="5">
+        <f t="shared" si="518"/>
+        <v>0.5</v>
+      </c>
+      <c r="T440" s="5">
+        <f t="shared" si="508"/>
+        <v>0.5</v>
+      </c>
+      <c r="U440" s="5">
+        <f t="shared" si="509"/>
+        <v>0.5</v>
+      </c>
+      <c r="V440" s="5">
+        <f t="shared" si="510"/>
+        <v>0.5</v>
+      </c>
+      <c r="W440" s="5">
+        <f t="shared" si="511"/>
+        <v>0.5</v>
+      </c>
+      <c r="X440" s="5">
+        <f t="shared" si="512"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y440" s="5">
+        <f t="shared" si="513"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z440" s="5">
+        <f t="shared" si="514"/>
+        <v>0.7</v>
+      </c>
+      <c r="AA440" s="5">
+        <f t="shared" si="515"/>
+        <v>0.6</v>
+      </c>
+      <c r="AB440" s="5">
+        <f t="shared" si="516"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC440" s="5">
+        <f t="shared" si="519"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="441" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A441" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B441" s="20"/>
+      <c r="C441" s="6">
+        <v>4</v>
+      </c>
+      <c r="D441">
+        <v>5</v>
+      </c>
+      <c r="E441" s="6">
+        <v>5</v>
+      </c>
+      <c r="F441" s="6">
+        <v>6</v>
+      </c>
+      <c r="G441" s="6">
+        <v>7</v>
+      </c>
+      <c r="H441" s="6">
+        <v>7</v>
+      </c>
+      <c r="I441" s="6">
+        <v>6</v>
+      </c>
+      <c r="J441" s="6">
+        <v>6</v>
+      </c>
+      <c r="K441" s="6">
+        <v>3</v>
+      </c>
+      <c r="L441" s="6">
+        <v>5</v>
+      </c>
+      <c r="M441" s="6">
+        <v>3</v>
+      </c>
+      <c r="N441" s="5">
+        <f t="shared" si="517"/>
+        <v>0.53271028037383172</v>
+      </c>
+      <c r="Q441" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="R441" s="20"/>
+      <c r="S441" s="5">
+        <f t="shared" si="518"/>
+        <v>0.4</v>
+      </c>
+      <c r="T441" s="5">
+        <f t="shared" si="508"/>
+        <v>0.5</v>
+      </c>
+      <c r="U441" s="5">
+        <f t="shared" si="509"/>
+        <v>0.5</v>
+      </c>
+      <c r="V441" s="5">
+        <f t="shared" si="510"/>
+        <v>0.6</v>
+      </c>
+      <c r="W441" s="5">
+        <f t="shared" si="511"/>
+        <v>0.7</v>
+      </c>
+      <c r="X441" s="5">
+        <f t="shared" si="512"/>
+        <v>0.7</v>
+      </c>
+      <c r="Y441" s="5">
+        <f t="shared" si="513"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z441" s="5">
+        <f t="shared" si="514"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA441" s="5">
+        <f t="shared" si="515"/>
+        <v>0.3</v>
+      </c>
+      <c r="AB441" s="5">
+        <f t="shared" si="516"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC441" s="5">
+        <f t="shared" si="519"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="442" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A442" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B442" s="20"/>
+      <c r="C442" s="6">
+        <v>7</v>
+      </c>
+      <c r="D442">
+        <v>7</v>
+      </c>
+      <c r="E442" s="6">
+        <v>6</v>
+      </c>
+      <c r="F442" s="6">
+        <v>6</v>
+      </c>
+      <c r="G442" s="6">
+        <v>6</v>
+      </c>
+      <c r="H442" s="6">
+        <v>2</v>
+      </c>
+      <c r="I442" s="6">
+        <v>6</v>
+      </c>
+      <c r="J442" s="6">
+        <v>6</v>
+      </c>
+      <c r="K442" s="6">
+        <v>5</v>
+      </c>
+      <c r="L442" s="6">
+        <v>5</v>
+      </c>
+      <c r="M442" s="6">
+        <v>4</v>
+      </c>
+      <c r="N442" s="5">
+        <f t="shared" si="517"/>
+        <v>0.56074766355140182</v>
+      </c>
+      <c r="Q442" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R442" s="20"/>
+      <c r="S442" s="5">
+        <f t="shared" si="518"/>
+        <v>0.7</v>
+      </c>
+      <c r="T442" s="5">
+        <f t="shared" si="508"/>
+        <v>0.7</v>
+      </c>
+      <c r="U442" s="5">
+        <f t="shared" si="509"/>
+        <v>0.6</v>
+      </c>
+      <c r="V442" s="5">
+        <f t="shared" si="510"/>
+        <v>0.6</v>
+      </c>
+      <c r="W442" s="5">
+        <f t="shared" si="511"/>
+        <v>0.6</v>
+      </c>
+      <c r="X442" s="5">
+        <f t="shared" si="512"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y442" s="5">
+        <f t="shared" si="513"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z442" s="5">
+        <f t="shared" si="514"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA442" s="5">
+        <f t="shared" si="515"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB442" s="5">
+        <f t="shared" si="516"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC442" s="5">
+        <f t="shared" si="519"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="443" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A443" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B443" s="20"/>
+      <c r="C443" s="6">
+        <v>6</v>
+      </c>
+      <c r="D443">
+        <v>6</v>
+      </c>
+      <c r="E443" s="6">
+        <v>3</v>
+      </c>
+      <c r="F443" s="6">
+        <v>5</v>
+      </c>
+      <c r="G443" s="6">
+        <v>5</v>
+      </c>
+      <c r="H443" s="6">
+        <v>2</v>
+      </c>
+      <c r="I443" s="6">
+        <v>5</v>
+      </c>
+      <c r="J443" s="6">
+        <v>4</v>
+      </c>
+      <c r="K443" s="6">
+        <v>7</v>
+      </c>
+      <c r="L443" s="6">
+        <v>3</v>
+      </c>
+      <c r="M443" s="6">
+        <v>4</v>
+      </c>
+      <c r="N443" s="5">
+        <f t="shared" si="517"/>
+        <v>0.46728971962616822</v>
+      </c>
+      <c r="Q443" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R443" s="20"/>
+      <c r="S443" s="5">
+        <f t="shared" si="518"/>
+        <v>0.6</v>
+      </c>
+      <c r="T443" s="5">
+        <f t="shared" si="508"/>
+        <v>0.6</v>
+      </c>
+      <c r="U443" s="5">
+        <f t="shared" si="509"/>
+        <v>0.3</v>
+      </c>
+      <c r="V443" s="5">
+        <f t="shared" si="510"/>
+        <v>0.5</v>
+      </c>
+      <c r="W443" s="5">
+        <f t="shared" si="511"/>
+        <v>0.5</v>
+      </c>
+      <c r="X443" s="5">
+        <f t="shared" si="512"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y443" s="5">
+        <f t="shared" si="513"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z443" s="5">
+        <f t="shared" si="514"/>
+        <v>0.4</v>
+      </c>
+      <c r="AA443" s="5">
+        <f t="shared" si="515"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB443" s="5">
+        <f t="shared" si="516"/>
+        <v>0.3</v>
+      </c>
+      <c r="AC443" s="5">
+        <f t="shared" si="519"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="444" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A444" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B444" s="20"/>
+      <c r="C444" s="6">
+        <v>6</v>
+      </c>
+      <c r="D444">
+        <v>7</v>
+      </c>
+      <c r="E444" s="6">
+        <v>4</v>
+      </c>
+      <c r="F444" s="6">
+        <v>5</v>
+      </c>
+      <c r="G444" s="6">
+        <v>6</v>
+      </c>
+      <c r="H444" s="6">
+        <v>6</v>
+      </c>
+      <c r="I444" s="6">
+        <v>6</v>
+      </c>
+      <c r="J444" s="6">
+        <v>5</v>
+      </c>
+      <c r="K444" s="6">
+        <v>5</v>
+      </c>
+      <c r="L444" s="6">
+        <v>6</v>
+      </c>
+      <c r="M444" s="6">
+        <v>3</v>
+      </c>
+      <c r="N444" s="5">
+        <f t="shared" si="517"/>
+        <v>0.55140186915887845</v>
+      </c>
+      <c r="Q444" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R444" s="20"/>
+      <c r="S444" s="5">
+        <f t="shared" si="518"/>
+        <v>0.6</v>
+      </c>
+      <c r="T444" s="5">
+        <f t="shared" si="508"/>
+        <v>0.7</v>
+      </c>
+      <c r="U444" s="5">
+        <f t="shared" si="509"/>
+        <v>0.4</v>
+      </c>
+      <c r="V444" s="5">
+        <f t="shared" si="510"/>
+        <v>0.5</v>
+      </c>
+      <c r="W444" s="5">
+        <f t="shared" si="511"/>
+        <v>0.6</v>
+      </c>
+      <c r="X444" s="5">
+        <f t="shared" si="512"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y444" s="5">
+        <f t="shared" si="513"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z444" s="5">
+        <f t="shared" si="514"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA444" s="5">
+        <f t="shared" si="515"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB444" s="5">
+        <f t="shared" si="516"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC444" s="5">
+        <f t="shared" si="519"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="445" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A445" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B445" s="20"/>
+      <c r="C445" s="6">
+        <v>3</v>
+      </c>
+      <c r="D445">
+        <v>6</v>
+      </c>
+      <c r="E445" s="6">
+        <v>3</v>
+      </c>
+      <c r="F445" s="6">
+        <v>6</v>
+      </c>
+      <c r="G445" s="6">
+        <v>6</v>
+      </c>
+      <c r="H445" s="6">
+        <v>5</v>
+      </c>
+      <c r="I445" s="6">
+        <v>4</v>
+      </c>
+      <c r="J445" s="6">
+        <v>6</v>
+      </c>
+      <c r="K445" s="6">
+        <v>6</v>
+      </c>
+      <c r="L445" s="6">
+        <v>5</v>
+      </c>
+      <c r="M445" s="6">
+        <v>2</v>
+      </c>
+      <c r="N445" s="5">
+        <f t="shared" si="517"/>
+        <v>0.48598130841121495</v>
+      </c>
+      <c r="Q445" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R445" s="20"/>
+      <c r="S445" s="5">
+        <f t="shared" si="518"/>
+        <v>0.3</v>
+      </c>
+      <c r="T445" s="5">
+        <f t="shared" si="508"/>
+        <v>0.6</v>
+      </c>
+      <c r="U445" s="5">
+        <f t="shared" si="509"/>
+        <v>0.3</v>
+      </c>
+      <c r="V445" s="5">
+        <f t="shared" si="510"/>
+        <v>0.6</v>
+      </c>
+      <c r="W445" s="5">
+        <f t="shared" si="511"/>
+        <v>0.6</v>
+      </c>
+      <c r="X445" s="5">
+        <f t="shared" si="512"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y445" s="5">
+        <f t="shared" si="513"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z445" s="5">
+        <f t="shared" si="514"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA445" s="5">
+        <f t="shared" si="515"/>
+        <v>0.6</v>
+      </c>
+      <c r="AB445" s="5">
+        <f t="shared" si="516"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC445" s="5">
+        <f t="shared" si="519"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="446" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A446" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B446" s="20"/>
+      <c r="C446" s="6">
+        <v>7</v>
+      </c>
+      <c r="D446">
+        <v>6</v>
+      </c>
+      <c r="E446" s="6">
+        <v>3</v>
+      </c>
+      <c r="F446" s="6">
+        <v>6</v>
+      </c>
+      <c r="G446" s="6">
+        <v>6</v>
+      </c>
+      <c r="H446" s="6">
+        <v>3</v>
+      </c>
+      <c r="I446" s="6">
+        <v>4</v>
+      </c>
+      <c r="J446" s="6">
+        <v>6</v>
+      </c>
+      <c r="K446" s="6">
+        <v>6</v>
+      </c>
+      <c r="L446" s="6">
+        <v>4</v>
+      </c>
+      <c r="M446" s="6">
+        <v>3</v>
+      </c>
+      <c r="N446" s="5">
+        <f t="shared" si="517"/>
+        <v>0.50467289719626163</v>
+      </c>
+      <c r="Q446" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R446" s="20"/>
+      <c r="S446" s="5">
+        <f t="shared" si="518"/>
+        <v>0.7</v>
+      </c>
+      <c r="T446" s="5">
+        <f t="shared" si="508"/>
+        <v>0.6</v>
+      </c>
+      <c r="U446" s="5">
+        <f t="shared" si="509"/>
+        <v>0.3</v>
+      </c>
+      <c r="V446" s="5">
+        <f t="shared" si="510"/>
+        <v>0.6</v>
+      </c>
+      <c r="W446" s="5">
+        <f t="shared" si="511"/>
+        <v>0.6</v>
+      </c>
+      <c r="X446" s="5">
+        <f t="shared" si="512"/>
+        <v>0.3</v>
+      </c>
+      <c r="Y446" s="5">
+        <f t="shared" si="513"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z446" s="5">
+        <f t="shared" si="514"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA446" s="5">
+        <f t="shared" si="515"/>
+        <v>0.6</v>
+      </c>
+      <c r="AB446" s="5">
+        <f t="shared" si="516"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC446" s="8">
+        <f t="shared" si="519"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="447" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A447" s="21">
+        <v>2</v>
+      </c>
+      <c r="B447" s="22"/>
+      <c r="C447" s="7">
+        <v>5</v>
+      </c>
+      <c r="D447" s="4">
+        <v>3</v>
+      </c>
+      <c r="E447" s="7">
+        <v>3</v>
+      </c>
+      <c r="F447" s="4">
+        <v>1</v>
+      </c>
+      <c r="G447" s="7">
+        <v>5</v>
+      </c>
+      <c r="H447" s="4">
+        <v>3</v>
+      </c>
+      <c r="I447" s="7">
+        <v>3</v>
+      </c>
+      <c r="J447" s="4">
+        <v>1</v>
+      </c>
+      <c r="K447" s="7">
+        <v>5</v>
+      </c>
+      <c r="L447" s="4">
+        <v>3</v>
+      </c>
+      <c r="M447" s="7">
+        <v>2</v>
+      </c>
+      <c r="N447" s="5">
+        <f>SUM(C447:M447)/63</f>
+        <v>0.53968253968253965</v>
+      </c>
+      <c r="Q447" s="23">
+        <v>2</v>
+      </c>
+      <c r="R447" s="24"/>
+      <c r="S447" s="8">
+        <f>C447/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="T447" s="8">
+        <f t="shared" ref="T447" si="520">D447/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="U447" s="8">
+        <f t="shared" ref="U447" si="521">E447/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="V447" s="8">
+        <f t="shared" ref="V447" si="522">F447/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="W447" s="8">
+        <f t="shared" ref="W447" si="523">G447/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="X447" s="8">
+        <f t="shared" ref="X447" si="524">H447/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y447" s="8">
+        <f t="shared" ref="Y447" si="525">I447/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z447" s="8">
+        <f t="shared" ref="Z447" si="526">J447/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AA447" s="8">
+        <f t="shared" ref="AA447" si="527">K447/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AB447" s="8">
+        <f t="shared" ref="AB447" si="528">L447/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="AC447" s="8">
+        <f>M447/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="448" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A448" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B448" s="25"/>
+      <c r="C448" s="8">
+        <f>SUM(C436:C447)/116</f>
+        <v>0.60344827586206895</v>
+      </c>
+      <c r="D448" s="8">
+        <f t="shared" ref="D448:L448" si="529">SUM(D436:D447)/116</f>
+        <v>0.57758620689655171</v>
+      </c>
+      <c r="E448" s="8">
+        <f t="shared" si="529"/>
+        <v>0.46551724137931033</v>
+      </c>
+      <c r="F448" s="8">
+        <f t="shared" si="529"/>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="G448" s="8">
+        <f t="shared" si="529"/>
+        <v>0.61206896551724133</v>
+      </c>
+      <c r="H448" s="8">
+        <f t="shared" si="529"/>
+        <v>0.5</v>
+      </c>
+      <c r="I448" s="8">
+        <f t="shared" si="529"/>
+        <v>0.52586206896551724</v>
+      </c>
+      <c r="J448" s="8">
+        <f t="shared" si="529"/>
+        <v>0.52586206896551724</v>
+      </c>
+      <c r="K448" s="8">
+        <f t="shared" si="529"/>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="L448" s="8">
+        <f t="shared" si="529"/>
+        <v>0.50862068965517238</v>
+      </c>
+      <c r="M448" s="8">
+        <f>SUM(M436:M447)/80</f>
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="N448">
+        <f>SUM(C436:M447)/1240</f>
+        <v>0.53548387096774197</v>
+      </c>
+      <c r="Q448" s="26"/>
+      <c r="R448" s="26"/>
+    </row>
+    <row r="449" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A449" s="9"/>
+      <c r="B449" s="9"/>
+      <c r="M449" t="s">
+        <v>29</v>
+      </c>
+      <c r="N449">
+        <f>SUM(C436:M447)</f>
+        <v>664</v>
+      </c>
+      <c r="Q449" s="9"/>
+      <c r="R449" s="9"/>
+    </row>
+    <row r="450" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A450" s="9"/>
+      <c r="B450" s="9"/>
+      <c r="M450" t="s">
+        <v>30</v>
+      </c>
+      <c r="N450">
+        <f>SUM(-N449, 1240)</f>
+        <v>576</v>
+      </c>
+      <c r="Q450" s="9"/>
+      <c r="R450" s="9"/>
+    </row>
+    <row r="451" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="A451" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B451" s="32"/>
+      <c r="C451" s="32"/>
+      <c r="Q451" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R451" s="32"/>
+      <c r="S451" s="32"/>
+    </row>
+    <row r="452" spans="1:29" ht="26" x14ac:dyDescent="0.3">
+      <c r="A452" s="1"/>
+      <c r="B452" t="s">
+        <v>0</v>
+      </c>
+      <c r="C452" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D452" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E452" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F452" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G452" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H452" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I452" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J452" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K452" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L452" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M452" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N452" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q452" s="1"/>
+      <c r="R452" t="s">
+        <v>0</v>
+      </c>
+      <c r="S452" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="T452" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U452" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="V452" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="W452" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="X452" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y452" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z452" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA452" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB452" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC452" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>1</v>
+      </c>
+      <c r="B453" s="2"/>
+      <c r="C453" s="28"/>
+      <c r="D453" s="28"/>
+      <c r="E453" s="28"/>
+      <c r="F453" s="28"/>
+      <c r="G453" s="28"/>
+      <c r="H453" s="28"/>
+      <c r="I453" s="28"/>
+      <c r="J453" s="28"/>
+      <c r="K453" s="28"/>
+      <c r="L453" s="28"/>
+      <c r="M453" s="28"/>
+      <c r="N453" s="21"/>
+      <c r="Q453" t="s">
+        <v>1</v>
+      </c>
+      <c r="R453" s="2"/>
+      <c r="S453" s="28"/>
+      <c r="T453" s="28"/>
+      <c r="U453" s="28"/>
+      <c r="V453" s="28"/>
+      <c r="W453" s="28"/>
+      <c r="X453" s="28"/>
+      <c r="Y453" s="28"/>
+      <c r="Z453" s="28"/>
+      <c r="AA453" s="28"/>
+      <c r="AB453" s="28"/>
+      <c r="AC453" s="28"/>
+    </row>
+    <row r="454" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A454" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B454" s="31"/>
+      <c r="C454" s="5">
+        <v>9</v>
+      </c>
+      <c r="D454" s="3">
+        <v>4</v>
+      </c>
+      <c r="E454" s="5">
+        <v>6</v>
+      </c>
+      <c r="F454" s="3">
+        <v>3</v>
+      </c>
+      <c r="G454" s="5">
+        <v>8</v>
+      </c>
+      <c r="H454" s="3">
+        <v>8</v>
+      </c>
+      <c r="I454" s="5">
+        <v>6</v>
+      </c>
+      <c r="J454" s="3">
+        <v>5</v>
+      </c>
+      <c r="K454" s="5">
+        <v>4</v>
+      </c>
+      <c r="L454" s="3">
+        <v>6</v>
+      </c>
+      <c r="M454" s="5">
+        <v>4</v>
+      </c>
+      <c r="N454" s="5">
+        <f>SUM(C454:M454)/107</f>
+        <v>0.58878504672897192</v>
+      </c>
+      <c r="Q454" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="R454" s="31"/>
+      <c r="S454" s="5">
+        <f>C454/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="T454" s="5">
+        <f t="shared" ref="T454:T464" si="530">D454/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="U454" s="5">
+        <f t="shared" ref="U454:U464" si="531">E454/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="V454" s="5">
+        <f t="shared" ref="V454:V464" si="532">F454/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="W454" s="5">
+        <f t="shared" ref="W454:W464" si="533">G454/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="X454" s="5">
+        <f t="shared" ref="X454:X464" si="534">H454/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="Y454" s="5">
+        <f t="shared" ref="Y454:Y464" si="535">I454/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="Z454" s="5">
+        <f t="shared" ref="Z454:Z464" si="536">J454/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="AA454" s="5">
+        <f t="shared" ref="AA454:AA464" si="537">K454/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="AB454" s="5">
+        <f t="shared" ref="AB454:AB464" si="538">L454/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="AC454" s="5">
+        <f>M454/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="455" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A455" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B455" s="20"/>
+      <c r="C455" s="6">
+        <v>6</v>
+      </c>
+      <c r="D455">
+        <v>7</v>
+      </c>
+      <c r="E455" s="6">
+        <v>4</v>
+      </c>
+      <c r="F455" s="6">
+        <v>5</v>
+      </c>
+      <c r="G455" s="6">
+        <v>7</v>
+      </c>
+      <c r="H455" s="6">
+        <v>5</v>
+      </c>
+      <c r="I455" s="6">
+        <v>5</v>
+      </c>
+      <c r="J455" s="6">
+        <v>4</v>
+      </c>
+      <c r="K455" s="6">
+        <v>6</v>
+      </c>
+      <c r="L455" s="6">
+        <v>6</v>
+      </c>
+      <c r="M455" s="6">
+        <v>6</v>
+      </c>
+      <c r="N455" s="5">
+        <f t="shared" ref="N455:N464" si="539">SUM(C455:M455)/107</f>
+        <v>0.57009345794392519</v>
+      </c>
+      <c r="Q455" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R455" s="20"/>
+      <c r="S455" s="5">
+        <f t="shared" ref="S455:S464" si="540">C455/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="T455" s="5">
+        <f t="shared" si="530"/>
+        <v>0.7</v>
+      </c>
+      <c r="U455" s="5">
+        <f t="shared" si="531"/>
+        <v>0.4</v>
+      </c>
+      <c r="V455" s="5">
+        <f t="shared" si="532"/>
+        <v>0.5</v>
+      </c>
+      <c r="W455" s="5">
+        <f t="shared" si="533"/>
+        <v>0.7</v>
+      </c>
+      <c r="X455" s="5">
+        <f t="shared" si="534"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y455" s="5">
+        <f t="shared" si="535"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z455" s="5">
+        <f t="shared" si="536"/>
+        <v>0.4</v>
+      </c>
+      <c r="AA455" s="5">
+        <f t="shared" si="537"/>
+        <v>0.6</v>
+      </c>
+      <c r="AB455" s="5">
+        <f t="shared" si="538"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC455" s="5">
+        <f t="shared" ref="AC455:AC464" si="541">M455/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="456" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A456" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B456" s="20"/>
+      <c r="C456" s="6">
+        <v>5</v>
+      </c>
+      <c r="D456">
+        <v>5</v>
+      </c>
+      <c r="E456" s="6">
+        <v>5</v>
+      </c>
+      <c r="F456" s="6">
+        <v>4</v>
+      </c>
+      <c r="G456" s="6">
+        <v>5</v>
+      </c>
+      <c r="H456" s="6">
+        <v>6</v>
+      </c>
+      <c r="I456" s="6">
+        <v>6</v>
+      </c>
+      <c r="J456" s="6">
+        <v>6</v>
+      </c>
+      <c r="K456" s="6">
+        <v>5</v>
+      </c>
+      <c r="L456" s="6">
+        <v>4</v>
+      </c>
+      <c r="M456" s="6">
+        <v>5</v>
+      </c>
+      <c r="N456" s="5">
+        <f t="shared" si="539"/>
+        <v>0.52336448598130836</v>
+      </c>
+      <c r="Q456" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="R456" s="20"/>
+      <c r="S456" s="5">
+        <f t="shared" si="540"/>
+        <v>0.5</v>
+      </c>
+      <c r="T456" s="5">
+        <f t="shared" si="530"/>
+        <v>0.5</v>
+      </c>
+      <c r="U456" s="5">
+        <f t="shared" si="531"/>
+        <v>0.5</v>
+      </c>
+      <c r="V456" s="5">
+        <f t="shared" si="532"/>
+        <v>0.4</v>
+      </c>
+      <c r="W456" s="5">
+        <f t="shared" si="533"/>
+        <v>0.5</v>
+      </c>
+      <c r="X456" s="5">
+        <f t="shared" si="534"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y456" s="5">
+        <f t="shared" si="535"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z456" s="5">
+        <f t="shared" si="536"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA456" s="5">
+        <f t="shared" si="537"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB456" s="5">
+        <f t="shared" si="538"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC456" s="5">
+        <f t="shared" si="541"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="457" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A457" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B457" s="20"/>
+      <c r="C457" s="6">
+        <v>6</v>
+      </c>
+      <c r="D457">
+        <v>6</v>
+      </c>
+      <c r="E457" s="6">
+        <v>6</v>
+      </c>
+      <c r="F457" s="6">
+        <v>7</v>
+      </c>
+      <c r="G457" s="6">
+        <v>6</v>
+      </c>
+      <c r="H457" s="6">
+        <v>5</v>
+      </c>
+      <c r="I457" s="6">
+        <v>6</v>
+      </c>
+      <c r="J457" s="6">
+        <v>5</v>
+      </c>
+      <c r="K457" s="6">
+        <v>6</v>
+      </c>
+      <c r="L457" s="6">
+        <v>4</v>
+      </c>
+      <c r="M457" s="6">
+        <v>2</v>
+      </c>
+      <c r="N457" s="5">
+        <f t="shared" si="539"/>
+        <v>0.55140186915887845</v>
+      </c>
+      <c r="Q457" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R457" s="20"/>
+      <c r="S457" s="5">
+        <f t="shared" si="540"/>
+        <v>0.6</v>
+      </c>
+      <c r="T457" s="5">
+        <f t="shared" si="530"/>
+        <v>0.6</v>
+      </c>
+      <c r="U457" s="5">
+        <f t="shared" si="531"/>
+        <v>0.6</v>
+      </c>
+      <c r="V457" s="5">
+        <f t="shared" si="532"/>
+        <v>0.7</v>
+      </c>
+      <c r="W457" s="5">
+        <f t="shared" si="533"/>
+        <v>0.6</v>
+      </c>
+      <c r="X457" s="5">
+        <f t="shared" si="534"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y457" s="5">
+        <f t="shared" si="535"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z457" s="5">
+        <f t="shared" si="536"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA457" s="5">
+        <f t="shared" si="537"/>
+        <v>0.6</v>
+      </c>
+      <c r="AB457" s="5">
+        <f t="shared" si="538"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC457" s="5">
+        <f t="shared" si="541"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="458" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A458" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B458" s="20"/>
+      <c r="C458" s="6">
+        <v>5</v>
+      </c>
+      <c r="D458">
+        <v>6</v>
+      </c>
+      <c r="E458" s="6">
+        <v>5</v>
+      </c>
+      <c r="F458" s="6">
+        <v>5</v>
+      </c>
+      <c r="G458" s="6">
+        <v>5</v>
+      </c>
+      <c r="H458" s="6">
+        <v>7</v>
+      </c>
+      <c r="I458" s="6">
+        <v>3</v>
+      </c>
+      <c r="J458" s="6">
+        <v>6</v>
+      </c>
+      <c r="K458" s="6">
+        <v>6</v>
+      </c>
+      <c r="L458" s="6">
+        <v>5</v>
+      </c>
+      <c r="M458" s="6">
+        <v>6</v>
+      </c>
+      <c r="N458" s="5">
+        <f t="shared" si="539"/>
+        <v>0.55140186915887845</v>
+      </c>
+      <c r="Q458" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R458" s="20"/>
+      <c r="S458" s="5">
+        <f t="shared" si="540"/>
+        <v>0.5</v>
+      </c>
+      <c r="T458" s="5">
+        <f t="shared" si="530"/>
+        <v>0.6</v>
+      </c>
+      <c r="U458" s="5">
+        <f t="shared" si="531"/>
+        <v>0.5</v>
+      </c>
+      <c r="V458" s="5">
+        <f t="shared" si="532"/>
+        <v>0.5</v>
+      </c>
+      <c r="W458" s="5">
+        <f t="shared" si="533"/>
+        <v>0.5</v>
+      </c>
+      <c r="X458" s="5">
+        <f t="shared" si="534"/>
+        <v>0.7</v>
+      </c>
+      <c r="Y458" s="5">
+        <f t="shared" si="535"/>
+        <v>0.3</v>
+      </c>
+      <c r="Z458" s="5">
+        <f t="shared" si="536"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA458" s="5">
+        <f t="shared" si="537"/>
+        <v>0.6</v>
+      </c>
+      <c r="AB458" s="5">
+        <f t="shared" si="538"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC458" s="5">
+        <f t="shared" si="541"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="459" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A459" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B459" s="20"/>
+      <c r="C459" s="6">
+        <v>5</v>
+      </c>
+      <c r="D459">
+        <v>5</v>
+      </c>
+      <c r="E459" s="6">
+        <v>5</v>
+      </c>
+      <c r="F459" s="6">
+        <v>5</v>
+      </c>
+      <c r="G459" s="6">
+        <v>7</v>
+      </c>
+      <c r="H459" s="6">
+        <v>7</v>
+      </c>
+      <c r="I459" s="6">
+        <v>6</v>
+      </c>
+      <c r="J459" s="6">
+        <v>6</v>
+      </c>
+      <c r="K459" s="6">
+        <v>3</v>
+      </c>
+      <c r="L459" s="6">
+        <v>5</v>
+      </c>
+      <c r="M459" s="6">
+        <v>3</v>
+      </c>
+      <c r="N459" s="5">
+        <f t="shared" si="539"/>
+        <v>0.53271028037383172</v>
+      </c>
+      <c r="Q459" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="R459" s="20"/>
+      <c r="S459" s="5">
+        <f t="shared" si="540"/>
+        <v>0.5</v>
+      </c>
+      <c r="T459" s="5">
+        <f t="shared" si="530"/>
+        <v>0.5</v>
+      </c>
+      <c r="U459" s="5">
+        <f t="shared" si="531"/>
+        <v>0.5</v>
+      </c>
+      <c r="V459" s="5">
+        <f t="shared" si="532"/>
+        <v>0.5</v>
+      </c>
+      <c r="W459" s="5">
+        <f t="shared" si="533"/>
+        <v>0.7</v>
+      </c>
+      <c r="X459" s="5">
+        <f t="shared" si="534"/>
+        <v>0.7</v>
+      </c>
+      <c r="Y459" s="5">
+        <f t="shared" si="535"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z459" s="5">
+        <f t="shared" si="536"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA459" s="5">
+        <f t="shared" si="537"/>
+        <v>0.3</v>
+      </c>
+      <c r="AB459" s="5">
+        <f t="shared" si="538"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC459" s="5">
+        <f t="shared" si="541"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="460" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A460" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B460" s="20"/>
+      <c r="C460" s="6">
+        <v>7</v>
+      </c>
+      <c r="D460">
+        <v>6</v>
+      </c>
+      <c r="E460" s="6">
+        <v>6</v>
+      </c>
+      <c r="F460" s="6">
+        <v>5</v>
+      </c>
+      <c r="G460" s="6">
+        <v>6</v>
+      </c>
+      <c r="H460" s="6">
+        <v>5</v>
+      </c>
+      <c r="I460" s="6">
+        <v>7</v>
+      </c>
+      <c r="J460" s="6">
+        <v>6</v>
+      </c>
+      <c r="K460" s="6">
+        <v>5</v>
+      </c>
+      <c r="L460" s="6">
+        <v>3</v>
+      </c>
+      <c r="M460" s="6">
+        <v>4</v>
+      </c>
+      <c r="N460" s="5">
+        <f t="shared" si="539"/>
+        <v>0.56074766355140182</v>
+      </c>
+      <c r="Q460" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R460" s="20"/>
+      <c r="S460" s="5">
+        <f t="shared" si="540"/>
+        <v>0.7</v>
+      </c>
+      <c r="T460" s="5">
+        <f t="shared" si="530"/>
+        <v>0.6</v>
+      </c>
+      <c r="U460" s="5">
+        <f t="shared" si="531"/>
+        <v>0.6</v>
+      </c>
+      <c r="V460" s="5">
+        <f>F460/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="W460" s="5">
+        <f t="shared" si="533"/>
+        <v>0.6</v>
+      </c>
+      <c r="X460" s="5">
+        <f t="shared" si="534"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y460" s="5">
+        <f t="shared" si="535"/>
+        <v>0.7</v>
+      </c>
+      <c r="Z460" s="5">
+        <f t="shared" si="536"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA460" s="5">
+        <f t="shared" si="537"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB460" s="5">
+        <f t="shared" si="538"/>
+        <v>0.3</v>
+      </c>
+      <c r="AC460" s="5">
+        <f t="shared" si="541"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="461" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A461" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B461" s="20"/>
+      <c r="C461" s="6">
+        <v>6</v>
+      </c>
+      <c r="D461">
+        <v>6</v>
+      </c>
+      <c r="E461" s="6">
+        <v>3</v>
+      </c>
+      <c r="F461" s="6">
+        <v>5</v>
+      </c>
+      <c r="G461" s="6">
+        <v>5</v>
+      </c>
+      <c r="H461" s="6">
+        <v>2</v>
+      </c>
+      <c r="I461" s="6">
+        <v>5</v>
+      </c>
+      <c r="J461" s="6">
+        <v>4</v>
+      </c>
+      <c r="K461" s="6">
+        <v>7</v>
+      </c>
+      <c r="L461" s="6">
+        <v>3</v>
+      </c>
+      <c r="M461" s="6">
+        <v>4</v>
+      </c>
+      <c r="N461" s="5">
+        <f t="shared" si="539"/>
+        <v>0.46728971962616822</v>
+      </c>
+      <c r="Q461" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R461" s="20"/>
+      <c r="S461" s="5">
+        <f t="shared" si="540"/>
+        <v>0.6</v>
+      </c>
+      <c r="T461" s="5">
+        <f t="shared" si="530"/>
+        <v>0.6</v>
+      </c>
+      <c r="U461" s="5">
+        <f t="shared" si="531"/>
+        <v>0.3</v>
+      </c>
+      <c r="V461" s="5">
+        <f>F461/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="W461" s="5">
+        <f t="shared" si="533"/>
+        <v>0.5</v>
+      </c>
+      <c r="X461" s="5">
+        <f t="shared" si="534"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y461" s="5">
+        <f t="shared" si="535"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z461" s="5">
+        <f t="shared" si="536"/>
+        <v>0.4</v>
+      </c>
+      <c r="AA461" s="5">
+        <f t="shared" si="537"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB461" s="5">
+        <f t="shared" si="538"/>
+        <v>0.3</v>
+      </c>
+      <c r="AC461" s="5">
+        <f t="shared" si="541"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="462" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A462" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B462" s="20"/>
+      <c r="C462" s="6">
+        <v>6</v>
+      </c>
+      <c r="D462">
+        <v>6</v>
+      </c>
+      <c r="E462" s="6">
+        <v>4</v>
+      </c>
+      <c r="F462" s="6">
+        <v>5</v>
+      </c>
+      <c r="G462" s="6">
+        <v>6</v>
+      </c>
+      <c r="H462" s="6">
+        <v>5</v>
+      </c>
+      <c r="I462" s="6">
+        <v>6</v>
+      </c>
+      <c r="J462" s="6">
+        <v>5</v>
+      </c>
+      <c r="K462" s="6">
+        <v>5</v>
+      </c>
+      <c r="L462" s="6">
+        <v>6</v>
+      </c>
+      <c r="M462" s="6">
+        <v>3</v>
+      </c>
+      <c r="N462" s="5">
+        <f t="shared" si="539"/>
+        <v>0.53271028037383172</v>
+      </c>
+      <c r="Q462" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R462" s="20"/>
+      <c r="S462" s="5">
+        <f t="shared" si="540"/>
+        <v>0.6</v>
+      </c>
+      <c r="T462" s="5">
+        <f t="shared" si="530"/>
+        <v>0.6</v>
+      </c>
+      <c r="U462" s="5">
+        <f t="shared" si="531"/>
+        <v>0.4</v>
+      </c>
+      <c r="V462" s="5">
+        <f t="shared" si="532"/>
+        <v>0.5</v>
+      </c>
+      <c r="W462" s="5">
+        <f t="shared" si="533"/>
+        <v>0.6</v>
+      </c>
+      <c r="X462" s="5">
+        <f t="shared" si="534"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y462" s="5">
+        <f t="shared" si="535"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z462" s="5">
+        <f t="shared" si="536"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA462" s="5">
+        <f t="shared" si="537"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB462" s="5">
+        <f t="shared" si="538"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC462" s="5">
+        <f t="shared" si="541"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="463" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A463" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B463" s="20"/>
+      <c r="C463" s="6">
+        <v>3</v>
+      </c>
+      <c r="D463">
+        <v>6</v>
+      </c>
+      <c r="E463" s="6">
+        <v>5</v>
+      </c>
+      <c r="F463" s="6">
+        <v>6</v>
+      </c>
+      <c r="G463" s="6">
+        <v>6</v>
+      </c>
+      <c r="H463" s="6">
+        <v>5</v>
+      </c>
+      <c r="I463" s="6">
+        <v>4</v>
+      </c>
+      <c r="J463" s="6">
+        <v>6</v>
+      </c>
+      <c r="K463" s="6">
+        <v>6</v>
+      </c>
+      <c r="L463" s="6">
+        <v>4</v>
+      </c>
+      <c r="M463" s="6">
+        <v>2</v>
+      </c>
+      <c r="N463" s="5">
+        <f t="shared" si="539"/>
+        <v>0.49532710280373832</v>
+      </c>
+      <c r="Q463" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R463" s="20"/>
+      <c r="S463" s="5">
+        <f t="shared" si="540"/>
+        <v>0.3</v>
+      </c>
+      <c r="T463" s="5">
+        <f t="shared" si="530"/>
+        <v>0.6</v>
+      </c>
+      <c r="U463" s="5">
+        <f t="shared" si="531"/>
+        <v>0.5</v>
+      </c>
+      <c r="V463" s="5">
+        <f t="shared" si="532"/>
+        <v>0.6</v>
+      </c>
+      <c r="W463" s="5">
+        <f t="shared" si="533"/>
+        <v>0.6</v>
+      </c>
+      <c r="X463" s="5">
+        <f t="shared" si="534"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y463" s="5">
+        <f t="shared" si="535"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z463" s="5">
+        <f t="shared" si="536"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA463" s="5">
+        <f t="shared" si="537"/>
+        <v>0.6</v>
+      </c>
+      <c r="AB463" s="5">
+        <f t="shared" si="538"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC463" s="5">
+        <f t="shared" si="541"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="464" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A464" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B464" s="20"/>
+      <c r="C464" s="6">
+        <v>7</v>
+      </c>
+      <c r="D464">
+        <v>6</v>
+      </c>
+      <c r="E464" s="6">
+        <v>4</v>
+      </c>
+      <c r="F464" s="6">
+        <v>6</v>
+      </c>
+      <c r="G464" s="6">
+        <v>4</v>
+      </c>
+      <c r="H464" s="41">
+        <v>3</v>
+      </c>
+      <c r="I464" s="6">
+        <v>4</v>
+      </c>
+      <c r="J464" s="6">
+        <v>6</v>
+      </c>
+      <c r="K464" s="6">
+        <v>8</v>
+      </c>
+      <c r="L464" s="6">
+        <v>6</v>
+      </c>
+      <c r="M464" s="6">
+        <v>3</v>
+      </c>
+      <c r="N464" s="5">
+        <f t="shared" si="539"/>
+        <v>0.53271028037383172</v>
+      </c>
+      <c r="Q464" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R464" s="20"/>
+      <c r="S464" s="5">
+        <f t="shared" si="540"/>
+        <v>0.7</v>
+      </c>
+      <c r="T464" s="5">
+        <f t="shared" si="530"/>
+        <v>0.6</v>
+      </c>
+      <c r="U464" s="5">
+        <f t="shared" si="531"/>
+        <v>0.4</v>
+      </c>
+      <c r="V464" s="5">
+        <f t="shared" si="532"/>
+        <v>0.6</v>
+      </c>
+      <c r="W464" s="5">
+        <f t="shared" si="533"/>
+        <v>0.4</v>
+      </c>
+      <c r="X464" s="5">
+        <f t="shared" si="534"/>
+        <v>0.3</v>
+      </c>
+      <c r="Y464" s="5">
+        <f t="shared" si="535"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z464" s="5">
+        <f t="shared" si="536"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA464" s="5">
+        <f t="shared" si="537"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB464" s="5">
+        <f t="shared" si="538"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC464" s="8">
+        <f t="shared" si="541"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="465" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A465" s="21">
+        <v>2</v>
+      </c>
+      <c r="B465" s="22"/>
+      <c r="C465" s="7">
+        <v>5</v>
+      </c>
+      <c r="D465" s="4">
+        <v>3</v>
+      </c>
+      <c r="E465" s="7">
+        <v>2</v>
+      </c>
+      <c r="F465" s="4">
+        <v>1</v>
+      </c>
+      <c r="G465" s="7">
+        <v>5</v>
+      </c>
+      <c r="H465" s="4">
+        <v>3</v>
+      </c>
+      <c r="I465" s="7">
+        <v>3</v>
+      </c>
+      <c r="J465" s="4">
+        <v>1</v>
+      </c>
+      <c r="K465" s="7">
+        <v>5</v>
+      </c>
+      <c r="L465" s="4">
+        <v>3</v>
+      </c>
+      <c r="M465" s="7">
+        <v>2</v>
+      </c>
+      <c r="N465" s="5">
+        <f>SUM(C465:M465)/63</f>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="Q465" s="23">
+        <v>2</v>
+      </c>
+      <c r="R465" s="24"/>
+      <c r="S465" s="8">
+        <f>C465/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="T465" s="8">
+        <f t="shared" ref="T465" si="542">D465/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="U465" s="8">
+        <f t="shared" ref="U465" si="543">E465/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V465" s="8">
+        <f t="shared" ref="V465" si="544">F465/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="W465" s="8">
+        <f t="shared" ref="W465" si="545">G465/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="X465" s="8">
+        <f t="shared" ref="X465" si="546">H465/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y465" s="8">
+        <f t="shared" ref="Y465" si="547">I465/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z465" s="8">
+        <f t="shared" ref="Z465" si="548">J465/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AA465" s="8">
+        <f t="shared" ref="AA465" si="549">K465/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AB465" s="8">
+        <f t="shared" ref="AB465" si="550">L465/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="AC465" s="8">
+        <f>M465/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="466" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A466" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B466" s="25"/>
+      <c r="C466" s="8">
+        <f>SUM(C454:C465)/116</f>
+        <v>0.60344827586206895</v>
+      </c>
+      <c r="D466" s="8">
+        <f t="shared" ref="D466:L466" si="551">SUM(D454:D465)/116</f>
+        <v>0.56896551724137934</v>
+      </c>
+      <c r="E466" s="8">
+        <f t="shared" si="551"/>
+        <v>0.47413793103448276</v>
+      </c>
+      <c r="F466" s="8">
+        <f t="shared" si="551"/>
+        <v>0.49137931034482757</v>
+      </c>
+      <c r="G466" s="8">
+        <f t="shared" si="551"/>
+        <v>0.60344827586206895</v>
+      </c>
+      <c r="H466" s="8">
+        <f t="shared" si="551"/>
+        <v>0.52586206896551724</v>
+      </c>
+      <c r="I466" s="8">
+        <f t="shared" si="551"/>
+        <v>0.52586206896551724</v>
+      </c>
+      <c r="J466" s="8">
+        <f t="shared" si="551"/>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="K466" s="8">
+        <f t="shared" si="551"/>
+        <v>0.56896551724137934</v>
+      </c>
+      <c r="L466" s="8">
+        <f t="shared" si="551"/>
+        <v>0.47413793103448276</v>
+      </c>
+      <c r="M466" s="8">
+        <f>SUM(M454:M465)/80</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N466" s="8">
+        <f>SUM(C454:M465)/1240</f>
+        <v>0.53629032258064513</v>
+      </c>
+      <c r="Q466" s="26"/>
+      <c r="R466" s="26"/>
+    </row>
+    <row r="467" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A467" s="9"/>
+      <c r="B467" s="9"/>
+      <c r="M467" t="s">
+        <v>29</v>
+      </c>
+      <c r="N467">
+        <f>SUM(C454:M465)</f>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="468" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A468" s="9"/>
+      <c r="B468" s="9"/>
+      <c r="M468" t="s">
+        <v>30</v>
+      </c>
+      <c r="N468">
+        <f>SUM(-N467, 1240)</f>
+        <v>575</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1210">
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="Q252:R252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="Q253:R253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="Q254:R254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="Q255:R255"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="Q256:R256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="Q257:R257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="Q258:R258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="Q259:R259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="Q260:R260"/>
-    <mergeCell ref="T246:T247"/>
-    <mergeCell ref="U246:U247"/>
-    <mergeCell ref="V246:V247"/>
-    <mergeCell ref="W246:W247"/>
-    <mergeCell ref="X246:X247"/>
-    <mergeCell ref="Y246:Y247"/>
-    <mergeCell ref="Z246:Z247"/>
-    <mergeCell ref="AA246:AA247"/>
-    <mergeCell ref="AB246:AB247"/>
-    <mergeCell ref="AC246:AC247"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="Q248:R248"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="Q249:R249"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="Q250:R250"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="Q251:R251"/>
-    <mergeCell ref="Q244:S244"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="Q245:S245"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="D246:D247"/>
-    <mergeCell ref="E246:E247"/>
-    <mergeCell ref="F246:F247"/>
-    <mergeCell ref="G246:G247"/>
-    <mergeCell ref="H246:H247"/>
-    <mergeCell ref="I246:I247"/>
-    <mergeCell ref="J246:J247"/>
-    <mergeCell ref="K246:K247"/>
-    <mergeCell ref="L246:L247"/>
-    <mergeCell ref="M246:M247"/>
-    <mergeCell ref="N246:N247"/>
-    <mergeCell ref="S246:S247"/>
-    <mergeCell ref="A244:G244"/>
-    <mergeCell ref="A418:B418"/>
-    <mergeCell ref="Q418:R418"/>
-    <mergeCell ref="A419:B419"/>
-    <mergeCell ref="Q419:R419"/>
-    <mergeCell ref="A420:B420"/>
-    <mergeCell ref="Q420:R420"/>
-    <mergeCell ref="A421:B421"/>
-    <mergeCell ref="Q421:R421"/>
-    <mergeCell ref="A422:B422"/>
-    <mergeCell ref="Q422:R422"/>
-    <mergeCell ref="A428:B428"/>
-    <mergeCell ref="Q428:R428"/>
-    <mergeCell ref="A423:B423"/>
-    <mergeCell ref="Q423:R423"/>
-    <mergeCell ref="A424:B424"/>
-    <mergeCell ref="Q424:R424"/>
-    <mergeCell ref="A425:B425"/>
-    <mergeCell ref="Q425:R425"/>
-    <mergeCell ref="A426:B426"/>
-    <mergeCell ref="Q426:R426"/>
-    <mergeCell ref="A427:B427"/>
-    <mergeCell ref="Q427:R427"/>
-    <mergeCell ref="Y414:Y415"/>
-    <mergeCell ref="Z414:Z415"/>
-    <mergeCell ref="AA414:AA415"/>
-    <mergeCell ref="AB414:AB415"/>
-    <mergeCell ref="AC414:AC415"/>
-    <mergeCell ref="A416:B416"/>
-    <mergeCell ref="Q416:R416"/>
-    <mergeCell ref="A417:B417"/>
-    <mergeCell ref="Q417:R417"/>
-    <mergeCell ref="L414:L415"/>
-    <mergeCell ref="M414:M415"/>
-    <mergeCell ref="N414:N415"/>
-    <mergeCell ref="S414:S415"/>
-    <mergeCell ref="T414:T415"/>
-    <mergeCell ref="U414:U415"/>
-    <mergeCell ref="V414:V415"/>
-    <mergeCell ref="W414:W415"/>
-    <mergeCell ref="X414:X415"/>
-    <mergeCell ref="C414:C415"/>
-    <mergeCell ref="D414:D415"/>
-    <mergeCell ref="E414:E415"/>
-    <mergeCell ref="F414:F415"/>
-    <mergeCell ref="G414:G415"/>
-    <mergeCell ref="H414:H415"/>
-    <mergeCell ref="A402:B402"/>
-    <mergeCell ref="Q402:R402"/>
-    <mergeCell ref="A403:B403"/>
-    <mergeCell ref="Q403:R403"/>
-    <mergeCell ref="A404:B404"/>
-    <mergeCell ref="Q404:R404"/>
-    <mergeCell ref="A405:B405"/>
-    <mergeCell ref="Q405:R405"/>
-    <mergeCell ref="A406:B406"/>
-    <mergeCell ref="Q406:R406"/>
-    <mergeCell ref="I414:I415"/>
-    <mergeCell ref="J414:J415"/>
-    <mergeCell ref="K414:K415"/>
-    <mergeCell ref="A407:B407"/>
-    <mergeCell ref="Q407:R407"/>
-    <mergeCell ref="A408:B408"/>
-    <mergeCell ref="Q408:R408"/>
-    <mergeCell ref="A409:B409"/>
-    <mergeCell ref="Q409:R409"/>
-    <mergeCell ref="A410:B410"/>
-    <mergeCell ref="Q410:R410"/>
-    <mergeCell ref="A413:C413"/>
-    <mergeCell ref="Q413:S413"/>
-    <mergeCell ref="AC396:AC397"/>
-    <mergeCell ref="A398:B398"/>
-    <mergeCell ref="Q398:R398"/>
-    <mergeCell ref="A399:B399"/>
-    <mergeCell ref="Q399:R399"/>
-    <mergeCell ref="A400:B400"/>
-    <mergeCell ref="Q400:R400"/>
-    <mergeCell ref="A401:B401"/>
-    <mergeCell ref="Q401:R401"/>
-    <mergeCell ref="T396:T397"/>
-    <mergeCell ref="U396:U397"/>
-    <mergeCell ref="V396:V397"/>
-    <mergeCell ref="W396:W397"/>
-    <mergeCell ref="X396:X397"/>
-    <mergeCell ref="Y396:Y397"/>
-    <mergeCell ref="Z396:Z397"/>
-    <mergeCell ref="AA396:AA397"/>
-    <mergeCell ref="AB396:AB397"/>
-    <mergeCell ref="A390:B390"/>
-    <mergeCell ref="Q390:R390"/>
-    <mergeCell ref="A391:B391"/>
-    <mergeCell ref="Q391:R391"/>
-    <mergeCell ref="A394:C394"/>
-    <mergeCell ref="Q394:S394"/>
-    <mergeCell ref="A395:C395"/>
-    <mergeCell ref="Q395:S395"/>
-    <mergeCell ref="C396:C397"/>
-    <mergeCell ref="D396:D397"/>
-    <mergeCell ref="E396:E397"/>
-    <mergeCell ref="F396:F397"/>
-    <mergeCell ref="G396:G397"/>
-    <mergeCell ref="H396:H397"/>
-    <mergeCell ref="I396:I397"/>
-    <mergeCell ref="J396:J397"/>
-    <mergeCell ref="K396:K397"/>
-    <mergeCell ref="L396:L397"/>
-    <mergeCell ref="M396:M397"/>
-    <mergeCell ref="N396:N397"/>
-    <mergeCell ref="S396:S397"/>
-    <mergeCell ref="A381:B381"/>
-    <mergeCell ref="Q381:R381"/>
-    <mergeCell ref="A382:B382"/>
-    <mergeCell ref="Q382:R382"/>
-    <mergeCell ref="A383:B383"/>
-    <mergeCell ref="Q383:R383"/>
-    <mergeCell ref="A384:B384"/>
-    <mergeCell ref="Q384:R384"/>
-    <mergeCell ref="A385:B385"/>
-    <mergeCell ref="Q385:R385"/>
-    <mergeCell ref="A386:B386"/>
-    <mergeCell ref="Q386:R386"/>
-    <mergeCell ref="A387:B387"/>
-    <mergeCell ref="Q387:R387"/>
-    <mergeCell ref="A388:B388"/>
-    <mergeCell ref="Q388:R388"/>
-    <mergeCell ref="A389:B389"/>
-    <mergeCell ref="Q389:R389"/>
-    <mergeCell ref="Y377:Y378"/>
-    <mergeCell ref="Z377:Z378"/>
-    <mergeCell ref="AA377:AA378"/>
-    <mergeCell ref="AB377:AB378"/>
-    <mergeCell ref="AC377:AC378"/>
-    <mergeCell ref="A379:B379"/>
-    <mergeCell ref="Q379:R379"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="Q380:R380"/>
-    <mergeCell ref="L377:L378"/>
-    <mergeCell ref="M377:M378"/>
-    <mergeCell ref="N377:N378"/>
-    <mergeCell ref="S377:S378"/>
-    <mergeCell ref="T377:T378"/>
-    <mergeCell ref="U377:U378"/>
-    <mergeCell ref="V377:V378"/>
-    <mergeCell ref="W377:W378"/>
-    <mergeCell ref="X377:X378"/>
-    <mergeCell ref="C377:C378"/>
-    <mergeCell ref="D377:D378"/>
-    <mergeCell ref="E377:E378"/>
-    <mergeCell ref="F377:F378"/>
-    <mergeCell ref="G377:G378"/>
-    <mergeCell ref="H377:H378"/>
-    <mergeCell ref="A365:B365"/>
-    <mergeCell ref="Q365:R365"/>
-    <mergeCell ref="A366:B366"/>
-    <mergeCell ref="Q366:R366"/>
-    <mergeCell ref="A367:B367"/>
-    <mergeCell ref="Q367:R367"/>
-    <mergeCell ref="A368:B368"/>
-    <mergeCell ref="Q368:R368"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="Q369:R369"/>
-    <mergeCell ref="I377:I378"/>
-    <mergeCell ref="J377:J378"/>
-    <mergeCell ref="K377:K378"/>
-    <mergeCell ref="A370:B370"/>
-    <mergeCell ref="Q370:R370"/>
-    <mergeCell ref="A371:B371"/>
-    <mergeCell ref="Q371:R371"/>
-    <mergeCell ref="A372:B372"/>
-    <mergeCell ref="Q372:R372"/>
-    <mergeCell ref="A373:B373"/>
-    <mergeCell ref="Q373:R373"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="Q376:S376"/>
-    <mergeCell ref="AC359:AC360"/>
-    <mergeCell ref="A361:B361"/>
-    <mergeCell ref="Q361:R361"/>
-    <mergeCell ref="A362:B362"/>
-    <mergeCell ref="Q362:R362"/>
-    <mergeCell ref="A363:B363"/>
-    <mergeCell ref="Q363:R363"/>
-    <mergeCell ref="A364:B364"/>
-    <mergeCell ref="Q364:R364"/>
-    <mergeCell ref="T359:T360"/>
-    <mergeCell ref="U359:U360"/>
-    <mergeCell ref="V359:V360"/>
-    <mergeCell ref="W359:W360"/>
-    <mergeCell ref="X359:X360"/>
-    <mergeCell ref="Y359:Y360"/>
-    <mergeCell ref="Z359:Z360"/>
-    <mergeCell ref="AA359:AA360"/>
-    <mergeCell ref="AB359:AB360"/>
-    <mergeCell ref="A353:B353"/>
-    <mergeCell ref="Q353:R353"/>
-    <mergeCell ref="A354:B354"/>
-    <mergeCell ref="Q354:R354"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="Q357:S357"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="Q358:S358"/>
-    <mergeCell ref="C359:C360"/>
-    <mergeCell ref="D359:D360"/>
-    <mergeCell ref="E359:E360"/>
-    <mergeCell ref="F359:F360"/>
-    <mergeCell ref="G359:G360"/>
-    <mergeCell ref="H359:H360"/>
-    <mergeCell ref="I359:I360"/>
-    <mergeCell ref="J359:J360"/>
-    <mergeCell ref="K359:K360"/>
-    <mergeCell ref="L359:L360"/>
-    <mergeCell ref="M359:M360"/>
-    <mergeCell ref="N359:N360"/>
-    <mergeCell ref="S359:S360"/>
-    <mergeCell ref="A344:B344"/>
-    <mergeCell ref="Q344:R344"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="Q345:R345"/>
-    <mergeCell ref="A346:B346"/>
-    <mergeCell ref="Q346:R346"/>
-    <mergeCell ref="A347:B347"/>
-    <mergeCell ref="Q347:R347"/>
-    <mergeCell ref="A348:B348"/>
-    <mergeCell ref="Q348:R348"/>
-    <mergeCell ref="A349:B349"/>
-    <mergeCell ref="Q349:R349"/>
-    <mergeCell ref="A350:B350"/>
-    <mergeCell ref="Q350:R350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="Q351:R351"/>
-    <mergeCell ref="A352:B352"/>
-    <mergeCell ref="Q352:R352"/>
-    <mergeCell ref="Y340:Y341"/>
-    <mergeCell ref="Z340:Z341"/>
-    <mergeCell ref="AA340:AA341"/>
-    <mergeCell ref="AB340:AB341"/>
-    <mergeCell ref="AC340:AC341"/>
-    <mergeCell ref="A342:B342"/>
-    <mergeCell ref="Q342:R342"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="Q343:R343"/>
-    <mergeCell ref="L340:L341"/>
-    <mergeCell ref="M340:M341"/>
-    <mergeCell ref="N340:N341"/>
-    <mergeCell ref="S340:S341"/>
-    <mergeCell ref="T340:T341"/>
-    <mergeCell ref="U340:U341"/>
-    <mergeCell ref="V340:V341"/>
-    <mergeCell ref="W340:W341"/>
-    <mergeCell ref="X340:X341"/>
-    <mergeCell ref="C340:C341"/>
-    <mergeCell ref="D340:D341"/>
-    <mergeCell ref="E340:E341"/>
-    <mergeCell ref="F340:F341"/>
-    <mergeCell ref="G340:G341"/>
-    <mergeCell ref="H340:H341"/>
-    <mergeCell ref="A328:B328"/>
-    <mergeCell ref="Q328:R328"/>
-    <mergeCell ref="A329:B329"/>
-    <mergeCell ref="Q329:R329"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="Q330:R330"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="Q331:R331"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="Q332:R332"/>
-    <mergeCell ref="I340:I341"/>
-    <mergeCell ref="J340:J341"/>
-    <mergeCell ref="K340:K341"/>
-    <mergeCell ref="A333:B333"/>
-    <mergeCell ref="Q333:R333"/>
-    <mergeCell ref="A334:B334"/>
-    <mergeCell ref="Q334:R334"/>
-    <mergeCell ref="A335:B335"/>
-    <mergeCell ref="Q335:R335"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="Q336:R336"/>
-    <mergeCell ref="A339:C339"/>
-    <mergeCell ref="Q339:S339"/>
-    <mergeCell ref="AC322:AC323"/>
-    <mergeCell ref="A324:B324"/>
-    <mergeCell ref="Q324:R324"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="Q325:R325"/>
-    <mergeCell ref="A326:B326"/>
-    <mergeCell ref="Q326:R326"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="Q327:R327"/>
-    <mergeCell ref="T322:T323"/>
-    <mergeCell ref="U322:U323"/>
-    <mergeCell ref="V322:V323"/>
-    <mergeCell ref="W322:W323"/>
-    <mergeCell ref="X322:X323"/>
-    <mergeCell ref="Y322:Y323"/>
-    <mergeCell ref="Z322:Z323"/>
-    <mergeCell ref="AA322:AA323"/>
-    <mergeCell ref="AB322:AB323"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="Q320:S320"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="Q321:S321"/>
-    <mergeCell ref="C322:C323"/>
-    <mergeCell ref="D322:D323"/>
-    <mergeCell ref="E322:E323"/>
-    <mergeCell ref="F322:F323"/>
-    <mergeCell ref="G322:G323"/>
-    <mergeCell ref="H322:H323"/>
-    <mergeCell ref="I322:I323"/>
-    <mergeCell ref="J322:J323"/>
-    <mergeCell ref="K322:K323"/>
-    <mergeCell ref="L322:L323"/>
-    <mergeCell ref="M322:M323"/>
-    <mergeCell ref="N322:N323"/>
-    <mergeCell ref="O322:O323"/>
-    <mergeCell ref="S322:S323"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="Q306:R306"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="Q307:R307"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="Q308:R308"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="Q309:R309"/>
-    <mergeCell ref="A310:B310"/>
-    <mergeCell ref="Q310:R310"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="Q316:R316"/>
-    <mergeCell ref="A311:B311"/>
-    <mergeCell ref="Q311:R311"/>
-    <mergeCell ref="A312:B312"/>
-    <mergeCell ref="Q312:R312"/>
-    <mergeCell ref="A313:B313"/>
-    <mergeCell ref="Q313:R313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="Q314:R314"/>
-    <mergeCell ref="A315:B315"/>
-    <mergeCell ref="Q315:R315"/>
-    <mergeCell ref="Y302:Y303"/>
-    <mergeCell ref="Z302:Z303"/>
-    <mergeCell ref="AA302:AA303"/>
-    <mergeCell ref="AB302:AB303"/>
-    <mergeCell ref="AC302:AC303"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="Q304:R304"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="Q305:R305"/>
-    <mergeCell ref="L302:L303"/>
-    <mergeCell ref="M302:M303"/>
-    <mergeCell ref="N302:N303"/>
-    <mergeCell ref="S302:S303"/>
-    <mergeCell ref="T302:T303"/>
-    <mergeCell ref="U302:U303"/>
-    <mergeCell ref="V302:V303"/>
-    <mergeCell ref="W302:W303"/>
-    <mergeCell ref="X302:X303"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="D302:D303"/>
-    <mergeCell ref="E302:E303"/>
-    <mergeCell ref="F302:F303"/>
-    <mergeCell ref="G302:G303"/>
-    <mergeCell ref="H302:H303"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="Q290:R290"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="Q291:R291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="Q292:R292"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="Q293:R293"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="Q294:R294"/>
-    <mergeCell ref="I302:I303"/>
-    <mergeCell ref="J302:J303"/>
-    <mergeCell ref="K302:K303"/>
-    <mergeCell ref="A295:B295"/>
-    <mergeCell ref="Q295:R295"/>
-    <mergeCell ref="A296:B296"/>
-    <mergeCell ref="Q296:R296"/>
-    <mergeCell ref="A297:B297"/>
-    <mergeCell ref="Q297:R297"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="Q298:R298"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="Q301:S301"/>
-    <mergeCell ref="AC284:AC285"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="Q286:R286"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="Q287:R287"/>
-    <mergeCell ref="A288:B288"/>
-    <mergeCell ref="Q288:R288"/>
-    <mergeCell ref="A289:B289"/>
-    <mergeCell ref="Q289:R289"/>
-    <mergeCell ref="T284:T285"/>
-    <mergeCell ref="U284:U285"/>
-    <mergeCell ref="V284:V285"/>
-    <mergeCell ref="W284:W285"/>
-    <mergeCell ref="X284:X285"/>
-    <mergeCell ref="Y284:Y285"/>
-    <mergeCell ref="Z284:Z285"/>
-    <mergeCell ref="AA284:AA285"/>
-    <mergeCell ref="AB284:AB285"/>
+  <mergeCells count="1315">
+    <mergeCell ref="A459:B459"/>
+    <mergeCell ref="Q459:R459"/>
+    <mergeCell ref="A460:B460"/>
+    <mergeCell ref="Q460:R460"/>
+    <mergeCell ref="A461:B461"/>
+    <mergeCell ref="Q461:R461"/>
+    <mergeCell ref="A462:B462"/>
+    <mergeCell ref="Q462:R462"/>
+    <mergeCell ref="A463:B463"/>
+    <mergeCell ref="Q463:R463"/>
+    <mergeCell ref="A464:B464"/>
+    <mergeCell ref="Q464:R464"/>
+    <mergeCell ref="A465:B465"/>
+    <mergeCell ref="Q465:R465"/>
+    <mergeCell ref="A466:B466"/>
+    <mergeCell ref="Q466:R466"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="V452:V453"/>
+    <mergeCell ref="W452:W453"/>
+    <mergeCell ref="X452:X453"/>
+    <mergeCell ref="Y452:Y453"/>
+    <mergeCell ref="Z452:Z453"/>
+    <mergeCell ref="AA452:AA453"/>
+    <mergeCell ref="AB452:AB453"/>
+    <mergeCell ref="AC452:AC453"/>
+    <mergeCell ref="A454:B454"/>
+    <mergeCell ref="Q454:R454"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="Q455:R455"/>
+    <mergeCell ref="A456:B456"/>
+    <mergeCell ref="Q456:R456"/>
+    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="Q457:R457"/>
+    <mergeCell ref="A458:B458"/>
+    <mergeCell ref="Q458:R458"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="Q451:S451"/>
+    <mergeCell ref="C452:C453"/>
+    <mergeCell ref="D452:D453"/>
+    <mergeCell ref="E452:E453"/>
+    <mergeCell ref="F452:F453"/>
+    <mergeCell ref="G452:G453"/>
+    <mergeCell ref="H452:H453"/>
+    <mergeCell ref="I452:I453"/>
+    <mergeCell ref="J452:J453"/>
+    <mergeCell ref="K452:K453"/>
+    <mergeCell ref="L452:L453"/>
+    <mergeCell ref="M452:M453"/>
+    <mergeCell ref="N452:N453"/>
+    <mergeCell ref="S452:S453"/>
+    <mergeCell ref="T452:T453"/>
+    <mergeCell ref="U452:U453"/>
+    <mergeCell ref="A440:B440"/>
+    <mergeCell ref="Q440:R440"/>
+    <mergeCell ref="A441:B441"/>
+    <mergeCell ref="Q441:R441"/>
+    <mergeCell ref="A442:B442"/>
+    <mergeCell ref="Q442:R442"/>
+    <mergeCell ref="A443:B443"/>
+    <mergeCell ref="Q443:R443"/>
+    <mergeCell ref="A444:B444"/>
+    <mergeCell ref="Q444:R444"/>
+    <mergeCell ref="A445:B445"/>
+    <mergeCell ref="Q445:R445"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="Q446:R446"/>
+    <mergeCell ref="A447:B447"/>
+    <mergeCell ref="Q447:R447"/>
+    <mergeCell ref="A448:B448"/>
+    <mergeCell ref="Q448:R448"/>
+    <mergeCell ref="T434:T435"/>
+    <mergeCell ref="U434:U435"/>
+    <mergeCell ref="V434:V435"/>
+    <mergeCell ref="W434:W435"/>
+    <mergeCell ref="X434:X435"/>
+    <mergeCell ref="Y434:Y435"/>
+    <mergeCell ref="Z434:Z435"/>
+    <mergeCell ref="AA434:AA435"/>
+    <mergeCell ref="AB434:AB435"/>
+    <mergeCell ref="AC434:AC435"/>
+    <mergeCell ref="A436:B436"/>
+    <mergeCell ref="Q436:R436"/>
+    <mergeCell ref="A437:B437"/>
+    <mergeCell ref="Q437:R437"/>
+    <mergeCell ref="A438:B438"/>
+    <mergeCell ref="Q438:R438"/>
+    <mergeCell ref="A439:B439"/>
+    <mergeCell ref="Q439:R439"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="Q432:S432"/>
+    <mergeCell ref="A433:C433"/>
+    <mergeCell ref="Q433:S433"/>
+    <mergeCell ref="C434:C435"/>
+    <mergeCell ref="D434:D435"/>
+    <mergeCell ref="E434:E435"/>
+    <mergeCell ref="F434:F435"/>
+    <mergeCell ref="G434:G435"/>
+    <mergeCell ref="H434:H435"/>
+    <mergeCell ref="I434:I435"/>
+    <mergeCell ref="J434:J435"/>
+    <mergeCell ref="K434:K435"/>
+    <mergeCell ref="L434:L435"/>
+    <mergeCell ref="M434:M435"/>
+    <mergeCell ref="N434:N435"/>
+    <mergeCell ref="S434:S435"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="Q271:R271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="Q272:R272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="Q273:R273"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="Q274:R274"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="Q275:R275"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="Q276:R276"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="Q277:R277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="Q278:R278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="Q279:R279"/>
+    <mergeCell ref="T265:T266"/>
+    <mergeCell ref="U265:U266"/>
+    <mergeCell ref="V265:V266"/>
+    <mergeCell ref="W265:W266"/>
+    <mergeCell ref="X265:X266"/>
+    <mergeCell ref="Y265:Y266"/>
+    <mergeCell ref="Z265:Z266"/>
+    <mergeCell ref="AA265:AA266"/>
+    <mergeCell ref="AB265:AB266"/>
+    <mergeCell ref="AC265:AC266"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="Q267:R267"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="Q268:R268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="Q269:R269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="Q270:R270"/>
+    <mergeCell ref="A263:G263"/>
+    <mergeCell ref="Q263:S263"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="Q264:S264"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="E265:E266"/>
+    <mergeCell ref="F265:F266"/>
+    <mergeCell ref="G265:G266"/>
+    <mergeCell ref="H265:H266"/>
+    <mergeCell ref="I265:I266"/>
+    <mergeCell ref="J265:J266"/>
+    <mergeCell ref="K265:K266"/>
+    <mergeCell ref="L265:L266"/>
+    <mergeCell ref="M265:M266"/>
+    <mergeCell ref="N265:N266"/>
+    <mergeCell ref="S265:S266"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="Q233:R233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="Q234:R234"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="Q235:R235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="Q236:R236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="Q237:R237"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="Q238:R238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="Q239:R239"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="Q240:R240"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="Q241:R241"/>
+    <mergeCell ref="U227:U228"/>
+    <mergeCell ref="V227:V228"/>
+    <mergeCell ref="W227:W228"/>
+    <mergeCell ref="X227:X228"/>
+    <mergeCell ref="Y227:Y228"/>
+    <mergeCell ref="Z227:Z228"/>
+    <mergeCell ref="AA227:AA228"/>
+    <mergeCell ref="AB227:AB228"/>
+    <mergeCell ref="AC227:AC228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="Q229:R229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="Q230:R230"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="Q231:R231"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="Q232:R232"/>
+    <mergeCell ref="Q225:S225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="Q226:S226"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="H227:H228"/>
+    <mergeCell ref="I227:I228"/>
+    <mergeCell ref="J227:J228"/>
+    <mergeCell ref="K227:K228"/>
+    <mergeCell ref="L227:L228"/>
+    <mergeCell ref="M227:M228"/>
+    <mergeCell ref="N227:N228"/>
+    <mergeCell ref="S227:S228"/>
+    <mergeCell ref="T227:T228"/>
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="Q219:R219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="Q220:R220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="Q221:R221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="Q222:R222"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="Q214:R214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="Q215:R215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="Q216:R216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="Q217:R217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="Q218:R218"/>
+    <mergeCell ref="AC208:AC209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="Q210:R210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="Q211:R211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="Q212:R212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="Q213:R213"/>
+    <mergeCell ref="T208:T209"/>
+    <mergeCell ref="U208:U209"/>
+    <mergeCell ref="V208:V209"/>
+    <mergeCell ref="W208:W209"/>
+    <mergeCell ref="X208:X209"/>
+    <mergeCell ref="Y208:Y209"/>
+    <mergeCell ref="Z208:Z209"/>
+    <mergeCell ref="AA208:AA209"/>
+    <mergeCell ref="AB208:AB209"/>
+    <mergeCell ref="Q207:S207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="G208:G209"/>
+    <mergeCell ref="H208:H209"/>
+    <mergeCell ref="I208:I209"/>
+    <mergeCell ref="J208:J209"/>
+    <mergeCell ref="K208:K209"/>
+    <mergeCell ref="L208:L209"/>
+    <mergeCell ref="M208:M209"/>
+    <mergeCell ref="N208:N209"/>
+    <mergeCell ref="S208:S209"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="Q200:R200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="Q201:R201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="Q202:R202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="Q203:R203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="Q204:R204"/>
+    <mergeCell ref="AA190:AA191"/>
+    <mergeCell ref="AB190:AB191"/>
+    <mergeCell ref="AC190:AC191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="Q192:R192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="Q193:R193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="Q194:R194"/>
+    <mergeCell ref="M190:M191"/>
+    <mergeCell ref="N190:N191"/>
+    <mergeCell ref="S190:S191"/>
+    <mergeCell ref="T190:T191"/>
+    <mergeCell ref="U190:U191"/>
+    <mergeCell ref="V190:V191"/>
+    <mergeCell ref="W190:W191"/>
+    <mergeCell ref="X190:X191"/>
+    <mergeCell ref="Y190:Y191"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="Q195:R195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="Q196:R196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="Q197:R197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="Q198:R198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="Q199:R199"/>
+    <mergeCell ref="Z190:Z191"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="N96:N97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="T41:T42"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="AD59:AD60"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="V59:V60"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="X59:X60"/>
+    <mergeCell ref="Y59:Y60"/>
+    <mergeCell ref="Z59:Z60"/>
+    <mergeCell ref="AA59:AA60"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="V41:V42"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="Y41:Y42"/>
+    <mergeCell ref="Z41:Z42"/>
+    <mergeCell ref="AA41:AA42"/>
+    <mergeCell ref="AB41:AB42"/>
+    <mergeCell ref="AC41:AC42"/>
+    <mergeCell ref="AD41:AD42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="Q76:S76"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="Q89:R89"/>
+    <mergeCell ref="Q90:R90"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="Q95:S95"/>
+    <mergeCell ref="S96:S97"/>
+    <mergeCell ref="AB78:AB79"/>
+    <mergeCell ref="AC78:AC79"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="AB59:AB60"/>
+    <mergeCell ref="AC59:AC60"/>
+    <mergeCell ref="Z96:Z97"/>
+    <mergeCell ref="AA96:AA97"/>
+    <mergeCell ref="AB96:AB97"/>
+    <mergeCell ref="AD78:AD79"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="Q82:R82"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="Q85:R85"/>
+    <mergeCell ref="S78:S79"/>
+    <mergeCell ref="T78:T79"/>
+    <mergeCell ref="U78:U79"/>
+    <mergeCell ref="V78:V79"/>
+    <mergeCell ref="W78:W79"/>
+    <mergeCell ref="X78:X79"/>
+    <mergeCell ref="Y78:Y79"/>
+    <mergeCell ref="Z78:Z79"/>
+    <mergeCell ref="AA78:AA79"/>
+    <mergeCell ref="Q109:R109"/>
+    <mergeCell ref="AC96:AC97"/>
+    <mergeCell ref="AD96:AD97"/>
+    <mergeCell ref="Q98:R98"/>
+    <mergeCell ref="Q99:R99"/>
+    <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="Q101:R101"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="Q104:R104"/>
+    <mergeCell ref="T96:T97"/>
+    <mergeCell ref="U96:U97"/>
+    <mergeCell ref="V96:V97"/>
+    <mergeCell ref="W96:W97"/>
+    <mergeCell ref="X96:X97"/>
+    <mergeCell ref="Y96:Y97"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="Q114:S114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="Q115:S115"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="N116:N117"/>
+    <mergeCell ref="O116:O117"/>
+    <mergeCell ref="S116:S117"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="Q107:R107"/>
+    <mergeCell ref="Q108:R108"/>
+    <mergeCell ref="Q110:R110"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="Q87:R87"/>
+    <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="AC116:AC117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="Q118:R118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="Q119:R119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="Q120:R120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="Q121:R121"/>
+    <mergeCell ref="T116:T117"/>
+    <mergeCell ref="U116:U117"/>
+    <mergeCell ref="V116:V117"/>
+    <mergeCell ref="W116:W117"/>
+    <mergeCell ref="X116:X117"/>
+    <mergeCell ref="Y116:Y117"/>
+    <mergeCell ref="Z116:Z117"/>
+    <mergeCell ref="AA116:AA117"/>
+    <mergeCell ref="AB116:AB117"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="Q122:R122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="Q123:R123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="Q124:R124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="Q125:R125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="Q126:R126"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="K134:K135"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="Q127:R127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="Q128:R128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="Q129:R129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="Q130:R130"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="Q133:S133"/>
+    <mergeCell ref="Y134:Y135"/>
+    <mergeCell ref="Z134:Z135"/>
+    <mergeCell ref="AA134:AA135"/>
+    <mergeCell ref="AB134:AB135"/>
+    <mergeCell ref="AC134:AC135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="Q136:R136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="Q137:R137"/>
+    <mergeCell ref="L134:L135"/>
+    <mergeCell ref="M134:M135"/>
+    <mergeCell ref="N134:N135"/>
+    <mergeCell ref="S134:S135"/>
+    <mergeCell ref="T134:T135"/>
+    <mergeCell ref="U134:U135"/>
+    <mergeCell ref="V134:V135"/>
+    <mergeCell ref="W134:W135"/>
+    <mergeCell ref="X134:X135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="Q138:R138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="Q139:R139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="Q140:R140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="Q141:R141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="Q142:R142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="Q143:R143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="Q144:R144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="Q145:R145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="Q146:R146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="Q147:R147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="Q148:R148"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="Q151:S151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="Q152:S152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="K153:K154"/>
+    <mergeCell ref="L153:L154"/>
+    <mergeCell ref="M153:M154"/>
+    <mergeCell ref="N153:N154"/>
+    <mergeCell ref="S153:S154"/>
+    <mergeCell ref="AC153:AC154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="Q155:R155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="Q156:R156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="Q157:R157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="Q158:R158"/>
+    <mergeCell ref="T153:T154"/>
+    <mergeCell ref="U153:U154"/>
+    <mergeCell ref="V153:V154"/>
+    <mergeCell ref="W153:W154"/>
+    <mergeCell ref="X153:X154"/>
+    <mergeCell ref="Y153:Y154"/>
+    <mergeCell ref="Z153:Z154"/>
+    <mergeCell ref="AA153:AA154"/>
+    <mergeCell ref="AB153:AB154"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="Q159:R159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="Q160:R160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="Q161:R161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="Q162:R162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="Q163:R163"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="Q164:R164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="Q165:R165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="Q166:R166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="Q167:R167"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="Q170:S170"/>
+    <mergeCell ref="Y171:Y172"/>
+    <mergeCell ref="Z171:Z172"/>
+    <mergeCell ref="AA171:AA172"/>
+    <mergeCell ref="AB171:AB172"/>
+    <mergeCell ref="AC171:AC172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="Q173:R173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="Q174:R174"/>
+    <mergeCell ref="L171:L172"/>
+    <mergeCell ref="M171:M172"/>
+    <mergeCell ref="N171:N172"/>
+    <mergeCell ref="S171:S172"/>
+    <mergeCell ref="T171:T172"/>
+    <mergeCell ref="U171:U172"/>
+    <mergeCell ref="V171:V172"/>
+    <mergeCell ref="W171:W172"/>
+    <mergeCell ref="X171:X172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="Q175:R175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="Q176:R176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="Q177:R177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="Q178:R178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="Q179:R179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="Q180:R180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="Q181:R181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="Q182:R182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="Q183:R183"/>
     <mergeCell ref="A184:B184"/>
     <mergeCell ref="Q184:R184"/>
     <mergeCell ref="A185:B185"/>
@@ -56094,730 +59084,460 @@
     <mergeCell ref="K190:K191"/>
     <mergeCell ref="L190:L191"/>
     <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="Q175:R175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="Q176:R176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="Q177:R177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="Q178:R178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="Q179:R179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="Q180:R180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="Q181:R181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="Q182:R182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="Q183:R183"/>
-    <mergeCell ref="Y171:Y172"/>
-    <mergeCell ref="Z171:Z172"/>
-    <mergeCell ref="AA171:AA172"/>
-    <mergeCell ref="AB171:AB172"/>
-    <mergeCell ref="AC171:AC172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="Q173:R173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="Q174:R174"/>
-    <mergeCell ref="L171:L172"/>
-    <mergeCell ref="M171:M172"/>
-    <mergeCell ref="N171:N172"/>
-    <mergeCell ref="S171:S172"/>
-    <mergeCell ref="T171:T172"/>
-    <mergeCell ref="U171:U172"/>
-    <mergeCell ref="V171:V172"/>
-    <mergeCell ref="W171:W172"/>
-    <mergeCell ref="X171:X172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="Q159:R159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="Q160:R160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="Q161:R161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="Q162:R162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="Q163:R163"/>
-    <mergeCell ref="I171:I172"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="K171:K172"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="Q164:R164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="Q165:R165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="Q166:R166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="Q167:R167"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="Q170:S170"/>
-    <mergeCell ref="AC153:AC154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="Q155:R155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="Q156:R156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="Q157:R157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="Q158:R158"/>
-    <mergeCell ref="T153:T154"/>
-    <mergeCell ref="U153:U154"/>
-    <mergeCell ref="V153:V154"/>
-    <mergeCell ref="W153:W154"/>
-    <mergeCell ref="X153:X154"/>
-    <mergeCell ref="Y153:Y154"/>
-    <mergeCell ref="Z153:Z154"/>
-    <mergeCell ref="AA153:AA154"/>
-    <mergeCell ref="AB153:AB154"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="Q147:R147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="Q148:R148"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="Q151:S151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="Q152:S152"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="I153:I154"/>
-    <mergeCell ref="J153:J154"/>
-    <mergeCell ref="K153:K154"/>
-    <mergeCell ref="L153:L154"/>
-    <mergeCell ref="M153:M154"/>
-    <mergeCell ref="N153:N154"/>
-    <mergeCell ref="S153:S154"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="Q138:R138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="Q139:R139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="Q140:R140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="Q141:R141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="Q142:R142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="Q143:R143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="Q144:R144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="Q145:R145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="Q146:R146"/>
-    <mergeCell ref="Y134:Y135"/>
-    <mergeCell ref="Z134:Z135"/>
-    <mergeCell ref="AA134:AA135"/>
-    <mergeCell ref="AB134:AB135"/>
-    <mergeCell ref="AC134:AC135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="Q136:R136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="Q137:R137"/>
-    <mergeCell ref="L134:L135"/>
-    <mergeCell ref="M134:M135"/>
-    <mergeCell ref="N134:N135"/>
-    <mergeCell ref="S134:S135"/>
-    <mergeCell ref="T134:T135"/>
-    <mergeCell ref="U134:U135"/>
-    <mergeCell ref="V134:V135"/>
-    <mergeCell ref="W134:W135"/>
-    <mergeCell ref="X134:X135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="Q122:R122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="Q123:R123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="Q124:R124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="Q125:R125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="Q126:R126"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="K134:K135"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="Q127:R127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="Q128:R128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="Q129:R129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="Q130:R130"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="Q133:S133"/>
-    <mergeCell ref="AC116:AC117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="Q118:R118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="Q119:R119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="Q120:R120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="Q121:R121"/>
-    <mergeCell ref="T116:T117"/>
-    <mergeCell ref="U116:U117"/>
-    <mergeCell ref="V116:V117"/>
-    <mergeCell ref="W116:W117"/>
-    <mergeCell ref="X116:X117"/>
-    <mergeCell ref="Y116:Y117"/>
-    <mergeCell ref="Z116:Z117"/>
-    <mergeCell ref="AA116:AA117"/>
-    <mergeCell ref="AB116:AB117"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="Q114:S114"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="Q115:S115"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="N116:N117"/>
-    <mergeCell ref="O116:O117"/>
-    <mergeCell ref="S116:S117"/>
-    <mergeCell ref="Q105:R105"/>
-    <mergeCell ref="Q106:R106"/>
-    <mergeCell ref="Q107:R107"/>
-    <mergeCell ref="Q108:R108"/>
-    <mergeCell ref="Q110:R110"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="Q86:R86"/>
-    <mergeCell ref="Q87:R87"/>
-    <mergeCell ref="Q88:R88"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="AD78:AD79"/>
-    <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="Q85:R85"/>
-    <mergeCell ref="S78:S79"/>
-    <mergeCell ref="T78:T79"/>
-    <mergeCell ref="U78:U79"/>
-    <mergeCell ref="V78:V79"/>
-    <mergeCell ref="W78:W79"/>
-    <mergeCell ref="X78:X79"/>
-    <mergeCell ref="Y78:Y79"/>
-    <mergeCell ref="Z78:Z79"/>
-    <mergeCell ref="AA78:AA79"/>
-    <mergeCell ref="Q109:R109"/>
-    <mergeCell ref="AC96:AC97"/>
-    <mergeCell ref="AD96:AD97"/>
-    <mergeCell ref="Q98:R98"/>
-    <mergeCell ref="Q99:R99"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="Q101:R101"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="Q104:R104"/>
-    <mergeCell ref="T96:T97"/>
-    <mergeCell ref="U96:U97"/>
-    <mergeCell ref="V96:V97"/>
-    <mergeCell ref="W96:W97"/>
-    <mergeCell ref="X96:X97"/>
-    <mergeCell ref="Y96:Y97"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="Q76:S76"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="Q89:R89"/>
-    <mergeCell ref="Q90:R90"/>
-    <mergeCell ref="Q91:R91"/>
-    <mergeCell ref="Q92:R92"/>
-    <mergeCell ref="Q95:S95"/>
-    <mergeCell ref="S96:S97"/>
-    <mergeCell ref="AB78:AB79"/>
-    <mergeCell ref="AC78:AC79"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="AB59:AB60"/>
-    <mergeCell ref="AC59:AC60"/>
-    <mergeCell ref="Z96:Z97"/>
-    <mergeCell ref="AA96:AA97"/>
-    <mergeCell ref="AB96:AB97"/>
-    <mergeCell ref="AD59:AD60"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="V59:V60"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="X59:X60"/>
-    <mergeCell ref="Y59:Y60"/>
-    <mergeCell ref="Z59:Z60"/>
-    <mergeCell ref="AA59:AA60"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="V41:V42"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="X41:X42"/>
-    <mergeCell ref="Y41:Y42"/>
-    <mergeCell ref="Z41:Z42"/>
-    <mergeCell ref="AA41:AA42"/>
-    <mergeCell ref="AB41:AB42"/>
-    <mergeCell ref="AC41:AC42"/>
-    <mergeCell ref="AD41:AD42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="T41:T42"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="L96:L97"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="N96:N97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="Q195:R195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="Q196:R196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="Q197:R197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="Q198:R198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="Q199:R199"/>
-    <mergeCell ref="Z190:Z191"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="AA190:AA191"/>
-    <mergeCell ref="AB190:AB191"/>
-    <mergeCell ref="AC190:AC191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="Q192:R192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="Q193:R193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="Q194:R194"/>
-    <mergeCell ref="M190:M191"/>
-    <mergeCell ref="N190:N191"/>
-    <mergeCell ref="S190:S191"/>
-    <mergeCell ref="T190:T191"/>
-    <mergeCell ref="U190:U191"/>
-    <mergeCell ref="V190:V191"/>
-    <mergeCell ref="W190:W191"/>
-    <mergeCell ref="X190:X191"/>
-    <mergeCell ref="Y190:Y191"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="Q207:S207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="G208:G209"/>
-    <mergeCell ref="H208:H209"/>
-    <mergeCell ref="I208:I209"/>
-    <mergeCell ref="J208:J209"/>
-    <mergeCell ref="K208:K209"/>
-    <mergeCell ref="L208:L209"/>
-    <mergeCell ref="M208:M209"/>
-    <mergeCell ref="N208:N209"/>
-    <mergeCell ref="S208:S209"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="Q200:R200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="Q201:R201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="Q202:R202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="Q203:R203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="Q204:R204"/>
-    <mergeCell ref="AC208:AC209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="Q210:R210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="Q211:R211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="Q212:R212"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="Q213:R213"/>
-    <mergeCell ref="T208:T209"/>
-    <mergeCell ref="U208:U209"/>
-    <mergeCell ref="V208:V209"/>
-    <mergeCell ref="W208:W209"/>
-    <mergeCell ref="X208:X209"/>
-    <mergeCell ref="Y208:Y209"/>
-    <mergeCell ref="Z208:Z209"/>
-    <mergeCell ref="AA208:AA209"/>
-    <mergeCell ref="AB208:AB209"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="Q219:R219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="Q220:R220"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="Q221:R221"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="Q222:R222"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="Q214:R214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="Q215:R215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="Q216:R216"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="Q217:R217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="Q218:R218"/>
-    <mergeCell ref="Q225:S225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="Q226:S226"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="E227:E228"/>
-    <mergeCell ref="F227:F228"/>
-    <mergeCell ref="G227:G228"/>
-    <mergeCell ref="H227:H228"/>
-    <mergeCell ref="I227:I228"/>
-    <mergeCell ref="J227:J228"/>
-    <mergeCell ref="K227:K228"/>
-    <mergeCell ref="L227:L228"/>
-    <mergeCell ref="M227:M228"/>
-    <mergeCell ref="N227:N228"/>
-    <mergeCell ref="S227:S228"/>
-    <mergeCell ref="T227:T228"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="U227:U228"/>
-    <mergeCell ref="V227:V228"/>
-    <mergeCell ref="W227:W228"/>
-    <mergeCell ref="X227:X228"/>
-    <mergeCell ref="Y227:Y228"/>
-    <mergeCell ref="Z227:Z228"/>
-    <mergeCell ref="AA227:AA228"/>
-    <mergeCell ref="AB227:AB228"/>
-    <mergeCell ref="AC227:AC228"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="Q229:R229"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="Q230:R230"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="Q231:R231"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="Q232:R232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="Q233:R233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="Q234:R234"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="Q235:R235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="Q236:R236"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="Q237:R237"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="Q238:R238"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="Q239:R239"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="Q240:R240"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="Q241:R241"/>
-    <mergeCell ref="A263:G263"/>
-    <mergeCell ref="Q263:S263"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="Q264:S264"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="E265:E266"/>
-    <mergeCell ref="F265:F266"/>
-    <mergeCell ref="G265:G266"/>
-    <mergeCell ref="H265:H266"/>
-    <mergeCell ref="I265:I266"/>
-    <mergeCell ref="J265:J266"/>
-    <mergeCell ref="K265:K266"/>
-    <mergeCell ref="L265:L266"/>
-    <mergeCell ref="M265:M266"/>
-    <mergeCell ref="N265:N266"/>
-    <mergeCell ref="S265:S266"/>
-    <mergeCell ref="T265:T266"/>
-    <mergeCell ref="U265:U266"/>
-    <mergeCell ref="V265:V266"/>
-    <mergeCell ref="W265:W266"/>
-    <mergeCell ref="X265:X266"/>
-    <mergeCell ref="Y265:Y266"/>
-    <mergeCell ref="Z265:Z266"/>
-    <mergeCell ref="AA265:AA266"/>
-    <mergeCell ref="AB265:AB266"/>
-    <mergeCell ref="AC265:AC266"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="Q267:R267"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="Q268:R268"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="Q269:R269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="Q270:R270"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="Q271:R271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="Q272:R272"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="Q273:R273"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="Q274:R274"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="Q275:R275"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="Q276:R276"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="Q277:R277"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="Q278:R278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="Q279:R279"/>
+    <mergeCell ref="AC284:AC285"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="Q286:R286"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="Q287:R287"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="Q288:R288"/>
+    <mergeCell ref="A289:B289"/>
+    <mergeCell ref="Q289:R289"/>
+    <mergeCell ref="T284:T285"/>
+    <mergeCell ref="U284:U285"/>
+    <mergeCell ref="V284:V285"/>
+    <mergeCell ref="W284:W285"/>
+    <mergeCell ref="X284:X285"/>
+    <mergeCell ref="Y284:Y285"/>
+    <mergeCell ref="Z284:Z285"/>
+    <mergeCell ref="AA284:AA285"/>
+    <mergeCell ref="AB284:AB285"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="Q290:R290"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="Q291:R291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="Q292:R292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="Q293:R293"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="Q294:R294"/>
+    <mergeCell ref="I302:I303"/>
+    <mergeCell ref="J302:J303"/>
+    <mergeCell ref="K302:K303"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="Q295:R295"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="Q296:R296"/>
+    <mergeCell ref="A297:B297"/>
+    <mergeCell ref="Q297:R297"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="Q298:R298"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="Q301:S301"/>
+    <mergeCell ref="Y302:Y303"/>
+    <mergeCell ref="Z302:Z303"/>
+    <mergeCell ref="AA302:AA303"/>
+    <mergeCell ref="AB302:AB303"/>
+    <mergeCell ref="AC302:AC303"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="Q304:R304"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="Q305:R305"/>
+    <mergeCell ref="L302:L303"/>
+    <mergeCell ref="M302:M303"/>
+    <mergeCell ref="N302:N303"/>
+    <mergeCell ref="S302:S303"/>
+    <mergeCell ref="T302:T303"/>
+    <mergeCell ref="U302:U303"/>
+    <mergeCell ref="V302:V303"/>
+    <mergeCell ref="W302:W303"/>
+    <mergeCell ref="X302:X303"/>
+    <mergeCell ref="C302:C303"/>
+    <mergeCell ref="D302:D303"/>
+    <mergeCell ref="E302:E303"/>
+    <mergeCell ref="F302:F303"/>
+    <mergeCell ref="G302:G303"/>
+    <mergeCell ref="H302:H303"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="Q306:R306"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="Q307:R307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="Q308:R308"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="Q309:R309"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="Q310:R310"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="Q316:R316"/>
+    <mergeCell ref="A311:B311"/>
+    <mergeCell ref="Q311:R311"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="Q312:R312"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="Q313:R313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="Q314:R314"/>
+    <mergeCell ref="A315:B315"/>
+    <mergeCell ref="Q315:R315"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="Q320:S320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="Q321:S321"/>
+    <mergeCell ref="C322:C323"/>
+    <mergeCell ref="D322:D323"/>
+    <mergeCell ref="E322:E323"/>
+    <mergeCell ref="F322:F323"/>
+    <mergeCell ref="G322:G323"/>
+    <mergeCell ref="H322:H323"/>
+    <mergeCell ref="I322:I323"/>
+    <mergeCell ref="J322:J323"/>
+    <mergeCell ref="K322:K323"/>
+    <mergeCell ref="L322:L323"/>
+    <mergeCell ref="M322:M323"/>
+    <mergeCell ref="N322:N323"/>
+    <mergeCell ref="O322:O323"/>
+    <mergeCell ref="S322:S323"/>
+    <mergeCell ref="AC322:AC323"/>
+    <mergeCell ref="A324:B324"/>
+    <mergeCell ref="Q324:R324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="Q325:R325"/>
+    <mergeCell ref="A326:B326"/>
+    <mergeCell ref="Q326:R326"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="Q327:R327"/>
+    <mergeCell ref="T322:T323"/>
+    <mergeCell ref="U322:U323"/>
+    <mergeCell ref="V322:V323"/>
+    <mergeCell ref="W322:W323"/>
+    <mergeCell ref="X322:X323"/>
+    <mergeCell ref="Y322:Y323"/>
+    <mergeCell ref="Z322:Z323"/>
+    <mergeCell ref="AA322:AA323"/>
+    <mergeCell ref="AB322:AB323"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="Q328:R328"/>
+    <mergeCell ref="A329:B329"/>
+    <mergeCell ref="Q329:R329"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="Q330:R330"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="Q331:R331"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="Q332:R332"/>
+    <mergeCell ref="I340:I341"/>
+    <mergeCell ref="J340:J341"/>
+    <mergeCell ref="K340:K341"/>
+    <mergeCell ref="A333:B333"/>
+    <mergeCell ref="Q333:R333"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="Q334:R334"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="Q335:R335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="Q336:R336"/>
+    <mergeCell ref="A339:C339"/>
+    <mergeCell ref="Q339:S339"/>
+    <mergeCell ref="Y340:Y341"/>
+    <mergeCell ref="Z340:Z341"/>
+    <mergeCell ref="AA340:AA341"/>
+    <mergeCell ref="AB340:AB341"/>
+    <mergeCell ref="AC340:AC341"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="Q342:R342"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="Q343:R343"/>
+    <mergeCell ref="L340:L341"/>
+    <mergeCell ref="M340:M341"/>
+    <mergeCell ref="N340:N341"/>
+    <mergeCell ref="S340:S341"/>
+    <mergeCell ref="T340:T341"/>
+    <mergeCell ref="U340:U341"/>
+    <mergeCell ref="V340:V341"/>
+    <mergeCell ref="W340:W341"/>
+    <mergeCell ref="X340:X341"/>
+    <mergeCell ref="C340:C341"/>
+    <mergeCell ref="D340:D341"/>
+    <mergeCell ref="E340:E341"/>
+    <mergeCell ref="F340:F341"/>
+    <mergeCell ref="G340:G341"/>
+    <mergeCell ref="H340:H341"/>
+    <mergeCell ref="A344:B344"/>
+    <mergeCell ref="Q344:R344"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="Q345:R345"/>
+    <mergeCell ref="A346:B346"/>
+    <mergeCell ref="Q346:R346"/>
+    <mergeCell ref="A347:B347"/>
+    <mergeCell ref="Q347:R347"/>
+    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="Q348:R348"/>
+    <mergeCell ref="A349:B349"/>
+    <mergeCell ref="Q349:R349"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="Q350:R350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="Q351:R351"/>
+    <mergeCell ref="A352:B352"/>
+    <mergeCell ref="Q352:R352"/>
+    <mergeCell ref="A353:B353"/>
+    <mergeCell ref="Q353:R353"/>
+    <mergeCell ref="A354:B354"/>
+    <mergeCell ref="Q354:R354"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="Q357:S357"/>
+    <mergeCell ref="A358:C358"/>
+    <mergeCell ref="Q358:S358"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="D359:D360"/>
+    <mergeCell ref="E359:E360"/>
+    <mergeCell ref="F359:F360"/>
+    <mergeCell ref="G359:G360"/>
+    <mergeCell ref="H359:H360"/>
+    <mergeCell ref="I359:I360"/>
+    <mergeCell ref="J359:J360"/>
+    <mergeCell ref="K359:K360"/>
+    <mergeCell ref="L359:L360"/>
+    <mergeCell ref="M359:M360"/>
+    <mergeCell ref="N359:N360"/>
+    <mergeCell ref="S359:S360"/>
+    <mergeCell ref="AC359:AC360"/>
+    <mergeCell ref="A361:B361"/>
+    <mergeCell ref="Q361:R361"/>
+    <mergeCell ref="A362:B362"/>
+    <mergeCell ref="Q362:R362"/>
+    <mergeCell ref="A363:B363"/>
+    <mergeCell ref="Q363:R363"/>
+    <mergeCell ref="A364:B364"/>
+    <mergeCell ref="Q364:R364"/>
+    <mergeCell ref="T359:T360"/>
+    <mergeCell ref="U359:U360"/>
+    <mergeCell ref="V359:V360"/>
+    <mergeCell ref="W359:W360"/>
+    <mergeCell ref="X359:X360"/>
+    <mergeCell ref="Y359:Y360"/>
+    <mergeCell ref="Z359:Z360"/>
+    <mergeCell ref="AA359:AA360"/>
+    <mergeCell ref="AB359:AB360"/>
+    <mergeCell ref="A365:B365"/>
+    <mergeCell ref="Q365:R365"/>
+    <mergeCell ref="A366:B366"/>
+    <mergeCell ref="Q366:R366"/>
+    <mergeCell ref="A367:B367"/>
+    <mergeCell ref="Q367:R367"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="Q368:R368"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="Q369:R369"/>
+    <mergeCell ref="I377:I378"/>
+    <mergeCell ref="J377:J378"/>
+    <mergeCell ref="K377:K378"/>
+    <mergeCell ref="A370:B370"/>
+    <mergeCell ref="Q370:R370"/>
+    <mergeCell ref="A371:B371"/>
+    <mergeCell ref="Q371:R371"/>
+    <mergeCell ref="A372:B372"/>
+    <mergeCell ref="Q372:R372"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="Q373:R373"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="Q376:S376"/>
+    <mergeCell ref="Y377:Y378"/>
+    <mergeCell ref="Z377:Z378"/>
+    <mergeCell ref="AA377:AA378"/>
+    <mergeCell ref="AB377:AB378"/>
+    <mergeCell ref="AC377:AC378"/>
+    <mergeCell ref="A379:B379"/>
+    <mergeCell ref="Q379:R379"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="Q380:R380"/>
+    <mergeCell ref="L377:L378"/>
+    <mergeCell ref="M377:M378"/>
+    <mergeCell ref="N377:N378"/>
+    <mergeCell ref="S377:S378"/>
+    <mergeCell ref="T377:T378"/>
+    <mergeCell ref="U377:U378"/>
+    <mergeCell ref="V377:V378"/>
+    <mergeCell ref="W377:W378"/>
+    <mergeCell ref="X377:X378"/>
+    <mergeCell ref="C377:C378"/>
+    <mergeCell ref="D377:D378"/>
+    <mergeCell ref="E377:E378"/>
+    <mergeCell ref="F377:F378"/>
+    <mergeCell ref="G377:G378"/>
+    <mergeCell ref="H377:H378"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="Q381:R381"/>
+    <mergeCell ref="A382:B382"/>
+    <mergeCell ref="Q382:R382"/>
+    <mergeCell ref="A383:B383"/>
+    <mergeCell ref="Q383:R383"/>
+    <mergeCell ref="A384:B384"/>
+    <mergeCell ref="Q384:R384"/>
+    <mergeCell ref="A385:B385"/>
+    <mergeCell ref="Q385:R385"/>
+    <mergeCell ref="A386:B386"/>
+    <mergeCell ref="Q386:R386"/>
+    <mergeCell ref="A387:B387"/>
+    <mergeCell ref="Q387:R387"/>
+    <mergeCell ref="A388:B388"/>
+    <mergeCell ref="Q388:R388"/>
+    <mergeCell ref="A389:B389"/>
+    <mergeCell ref="Q389:R389"/>
+    <mergeCell ref="A390:B390"/>
+    <mergeCell ref="Q390:R390"/>
+    <mergeCell ref="A391:B391"/>
+    <mergeCell ref="Q391:R391"/>
+    <mergeCell ref="A394:C394"/>
+    <mergeCell ref="Q394:S394"/>
+    <mergeCell ref="A395:C395"/>
+    <mergeCell ref="Q395:S395"/>
+    <mergeCell ref="C396:C397"/>
+    <mergeCell ref="D396:D397"/>
+    <mergeCell ref="E396:E397"/>
+    <mergeCell ref="F396:F397"/>
+    <mergeCell ref="G396:G397"/>
+    <mergeCell ref="H396:H397"/>
+    <mergeCell ref="I396:I397"/>
+    <mergeCell ref="J396:J397"/>
+    <mergeCell ref="K396:K397"/>
+    <mergeCell ref="L396:L397"/>
+    <mergeCell ref="M396:M397"/>
+    <mergeCell ref="N396:N397"/>
+    <mergeCell ref="S396:S397"/>
+    <mergeCell ref="AC396:AC397"/>
+    <mergeCell ref="A398:B398"/>
+    <mergeCell ref="Q398:R398"/>
+    <mergeCell ref="A399:B399"/>
+    <mergeCell ref="Q399:R399"/>
+    <mergeCell ref="A400:B400"/>
+    <mergeCell ref="Q400:R400"/>
+    <mergeCell ref="A401:B401"/>
+    <mergeCell ref="Q401:R401"/>
+    <mergeCell ref="T396:T397"/>
+    <mergeCell ref="U396:U397"/>
+    <mergeCell ref="V396:V397"/>
+    <mergeCell ref="W396:W397"/>
+    <mergeCell ref="X396:X397"/>
+    <mergeCell ref="Y396:Y397"/>
+    <mergeCell ref="Z396:Z397"/>
+    <mergeCell ref="AA396:AA397"/>
+    <mergeCell ref="AB396:AB397"/>
+    <mergeCell ref="A402:B402"/>
+    <mergeCell ref="Q402:R402"/>
+    <mergeCell ref="A403:B403"/>
+    <mergeCell ref="Q403:R403"/>
+    <mergeCell ref="A404:B404"/>
+    <mergeCell ref="Q404:R404"/>
+    <mergeCell ref="A405:B405"/>
+    <mergeCell ref="Q405:R405"/>
+    <mergeCell ref="A406:B406"/>
+    <mergeCell ref="Q406:R406"/>
+    <mergeCell ref="I414:I415"/>
+    <mergeCell ref="J414:J415"/>
+    <mergeCell ref="K414:K415"/>
+    <mergeCell ref="A407:B407"/>
+    <mergeCell ref="Q407:R407"/>
+    <mergeCell ref="A408:B408"/>
+    <mergeCell ref="Q408:R408"/>
+    <mergeCell ref="A409:B409"/>
+    <mergeCell ref="Q409:R409"/>
+    <mergeCell ref="A410:B410"/>
+    <mergeCell ref="Q410:R410"/>
+    <mergeCell ref="A413:C413"/>
+    <mergeCell ref="Q413:S413"/>
+    <mergeCell ref="Y414:Y415"/>
+    <mergeCell ref="Z414:Z415"/>
+    <mergeCell ref="AA414:AA415"/>
+    <mergeCell ref="AB414:AB415"/>
+    <mergeCell ref="AC414:AC415"/>
+    <mergeCell ref="A416:B416"/>
+    <mergeCell ref="Q416:R416"/>
+    <mergeCell ref="A417:B417"/>
+    <mergeCell ref="Q417:R417"/>
+    <mergeCell ref="L414:L415"/>
+    <mergeCell ref="M414:M415"/>
+    <mergeCell ref="N414:N415"/>
+    <mergeCell ref="S414:S415"/>
+    <mergeCell ref="T414:T415"/>
+    <mergeCell ref="U414:U415"/>
+    <mergeCell ref="V414:V415"/>
+    <mergeCell ref="W414:W415"/>
+    <mergeCell ref="X414:X415"/>
+    <mergeCell ref="C414:C415"/>
+    <mergeCell ref="D414:D415"/>
+    <mergeCell ref="E414:E415"/>
+    <mergeCell ref="F414:F415"/>
+    <mergeCell ref="G414:G415"/>
+    <mergeCell ref="H414:H415"/>
+    <mergeCell ref="A418:B418"/>
+    <mergeCell ref="Q418:R418"/>
+    <mergeCell ref="A419:B419"/>
+    <mergeCell ref="Q419:R419"/>
+    <mergeCell ref="A420:B420"/>
+    <mergeCell ref="Q420:R420"/>
+    <mergeCell ref="A421:B421"/>
+    <mergeCell ref="Q421:R421"/>
+    <mergeCell ref="A422:B422"/>
+    <mergeCell ref="Q422:R422"/>
+    <mergeCell ref="A428:B428"/>
+    <mergeCell ref="Q428:R428"/>
+    <mergeCell ref="A423:B423"/>
+    <mergeCell ref="Q423:R423"/>
+    <mergeCell ref="A424:B424"/>
+    <mergeCell ref="Q424:R424"/>
+    <mergeCell ref="A425:B425"/>
+    <mergeCell ref="Q425:R425"/>
+    <mergeCell ref="A426:B426"/>
+    <mergeCell ref="Q426:R426"/>
+    <mergeCell ref="A427:B427"/>
+    <mergeCell ref="Q427:R427"/>
+    <mergeCell ref="Q244:S244"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="Q245:S245"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="D246:D247"/>
+    <mergeCell ref="E246:E247"/>
+    <mergeCell ref="F246:F247"/>
+    <mergeCell ref="G246:G247"/>
+    <mergeCell ref="H246:H247"/>
+    <mergeCell ref="I246:I247"/>
+    <mergeCell ref="J246:J247"/>
+    <mergeCell ref="K246:K247"/>
+    <mergeCell ref="L246:L247"/>
+    <mergeCell ref="M246:M247"/>
+    <mergeCell ref="N246:N247"/>
+    <mergeCell ref="S246:S247"/>
+    <mergeCell ref="A244:G244"/>
+    <mergeCell ref="T246:T247"/>
+    <mergeCell ref="U246:U247"/>
+    <mergeCell ref="V246:V247"/>
+    <mergeCell ref="W246:W247"/>
+    <mergeCell ref="X246:X247"/>
+    <mergeCell ref="Y246:Y247"/>
+    <mergeCell ref="Z246:Z247"/>
+    <mergeCell ref="AA246:AA247"/>
+    <mergeCell ref="AB246:AB247"/>
+    <mergeCell ref="AC246:AC247"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="Q248:R248"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="Q249:R249"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="Q250:R250"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="Q251:R251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="Q252:R252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="Q253:R253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="Q254:R254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="Q255:R255"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="Q256:R256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="Q257:R257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="Q258:R258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="Q259:R259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="Q260:R260"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
